--- a/data/africa_inflation_data.xlsx
+++ b/data/africa_inflation_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR54"/>
+  <dimension ref="A1:AS54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,213 +446,136 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>abbreviation</t>
+          <t>alpha_2</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>1980</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>1981</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>1982</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>1983</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>1984</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>1985</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>1986</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>1987</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>1988</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>1989</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>1990</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>1991</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>1992</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>1993</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>1994</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>1995</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>1996</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>1997</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>1998</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>1999</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>2001</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>2002</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>2003</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>2004</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>2005</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>2006</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+          <t>alpha_3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>1980</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>1981</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>1982</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>1983</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>1984</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>1985</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>1986</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>1987</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>1988</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>1989</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>1990</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>1991</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>1992</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>1993</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>1994</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>1995</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>1996</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>1997</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>1998</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>1999</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>2001</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>2002</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>2003</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>2004</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>2005</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>2006</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>2007</v>
+      </c>
+      <c r="AG1" s="1" t="n">
+        <v>2008</v>
+      </c>
+      <c r="AH1" s="1" t="n">
+        <v>2009</v>
+      </c>
+      <c r="AI1" s="1" t="n">
+        <v>2010</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>2011</v>
+      </c>
+      <c r="AK1" s="1" t="n">
+        <v>2012</v>
+      </c>
+      <c r="AL1" s="1" t="n">
+        <v>2013</v>
+      </c>
+      <c r="AM1" s="1" t="n">
+        <v>2014</v>
+      </c>
+      <c r="AN1" s="1" t="n">
+        <v>2015</v>
+      </c>
+      <c r="AO1" s="1" t="n">
+        <v>2016</v>
+      </c>
+      <c r="AP1" s="1" t="n">
+        <v>2017</v>
+      </c>
+      <c r="AQ1" s="1" t="n">
+        <v>2018</v>
+      </c>
+      <c r="AR1" s="1" t="n">
+        <v>2019</v>
+      </c>
+      <c r="AS1" s="1" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="2">
@@ -671,127 +594,132 @@
           <t>BI</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>BDI</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
         <v>1.2</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>12.2</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>5.9</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>14.3</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>3.8</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>1.7</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>7.1</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>4.5</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>11.7</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>7</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>9</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>1.8</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>9.699999999999999</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>14.9</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>19.2</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>26.5</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>31.1</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>12.5</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>3.5</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Y2" t="n">
         <v>25.5</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Z2" t="n">
         <v>7.9</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AA2" t="n">
         <v>-1.3</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AB2" t="n">
         <v>10.6</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AC2" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AD2" t="n">
         <v>13.3</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AE2" t="n">
         <v>2.7</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AF2" t="n">
         <v>8.4</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AG2" t="n">
         <v>24.4</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AH2" t="n">
         <v>10.6</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AI2" t="n">
         <v>6.5</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AJ2" t="n">
         <v>9.6</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AK2" t="n">
         <v>18.2</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AL2" t="n">
         <v>7.9</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AM2" t="n">
         <v>4.4</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AN2" t="n">
         <v>5.6</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AO2" t="n">
         <v>5.5</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AP2" t="n">
         <v>1.6</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AQ2" t="n">
         <v>-4</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AR2" t="n">
         <v>-0.7</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AS2" t="n">
         <v>7.3</v>
       </c>
     </row>
@@ -811,127 +739,132 @@
           <t>CM</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CMR</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
         <v>7.7</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>7.5</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>15.3</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>20.5</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>12.1</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>4.2</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>4.3</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>2.8</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>1.7</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>1.6</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>1.5</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>-0.6</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>1.9</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>-3.7</v>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>12.7</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>25.8</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>3.9</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>4.8</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>3.2</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>1.8</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Y3" t="n">
         <v>1.2</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Z3" t="n">
         <v>4.5</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="AA3" t="n">
         <v>2.8</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AB3" t="n">
         <v>0.6</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AC3" t="n">
         <v>0.3</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AD3" t="n">
         <v>2</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AE3" t="n">
         <v>4.9</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AF3" t="n">
         <v>1.1</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AG3" t="n">
         <v>5.3</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AH3" t="n">
         <v>3</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AI3" t="n">
         <v>1.3</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AJ3" t="n">
         <v>2.9</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AK3" t="n">
         <v>2.4</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AL3" t="n">
         <v>2.1</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AM3" t="n">
         <v>1.9</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AN3" t="n">
         <v>2.7</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AO3" t="n">
         <v>0.9</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AP3" t="n">
         <v>0.6</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AQ3" t="n">
         <v>1.1</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AR3" t="n">
         <v>2.5</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AS3" t="n">
         <v>2.8</v>
       </c>
     </row>
@@ -951,127 +884,132 @@
           <t>CF</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CAF</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
         <v>13.3</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>14.7</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>13.2</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>14.6</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>2.6</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>10.5</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>2.4</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>-7</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>-3.9</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>0.6</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>-0.2</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>-2.8</v>
       </c>
-      <c r="P4" t="n">
+      <c r="Q4" t="n">
         <v>-0.8</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="R4" t="n">
         <v>-2.9</v>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>24.5</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>19.2</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>3.8</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>1.6</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>-2</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-1.6</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Y4" t="n">
         <v>3.4</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Z4" t="n">
         <v>4.1</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="AA4" t="n">
         <v>2.3</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AB4" t="n">
         <v>4.4</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AC4" t="n">
         <v>-2.6</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AD4" t="n">
         <v>2.9</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AE4" t="n">
         <v>6.8</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AF4" t="n">
         <v>1</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AG4" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AH4" t="n">
         <v>3.5</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AI4" t="n">
         <v>1.5</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AJ4" t="n">
         <v>1.2</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AK4" t="n">
         <v>5.5</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AL4" t="n">
         <v>7</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AM4" t="n">
         <v>14.9</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AN4" t="n">
         <v>1.4</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AO4" t="n">
         <v>4.9</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AP4" t="n">
         <v>4.2</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AQ4" t="n">
         <v>1.6</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AR4" t="n">
         <v>2.7</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="AS4" t="n">
         <v>2.3</v>
       </c>
     </row>
@@ -1091,127 +1029,132 @@
           <t>TD</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>TCD</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
         <v>8.6</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>8.1</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>6.4</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>7.9</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>20.3</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>5.1</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>-13.1</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>-2.7</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>14.9</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>-4.9</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>0.5</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>4.2</v>
       </c>
-      <c r="P5" t="n">
+      <c r="Q5" t="n">
         <v>-3.8</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="R5" t="n">
         <v>-10.9</v>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>41.3</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>5.4</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>11.3</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>5.6</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>4.3</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-8.4</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Y5" t="n">
         <v>3.8</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Z5" t="n">
         <v>12.4</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="AA5" t="n">
         <v>5.2</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AB5" t="n">
         <v>-1.8</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AC5" t="n">
         <v>-4.8</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AD5" t="n">
         <v>4.4</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AE5" t="n">
         <v>9.6</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AF5" t="n">
         <v>-7.4</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AG5" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AH5" t="n">
         <v>10.1</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AI5" t="n">
         <v>-2.1</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AJ5" t="n">
         <v>2</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AK5" t="n">
         <v>7.5</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AL5" t="n">
         <v>0.2</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AM5" t="n">
         <v>1.7</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AN5" t="n">
         <v>4.8</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AO5" t="n">
         <v>-1.6</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="AP5" t="n">
         <v>-0.9</v>
       </c>
-      <c r="AP5" t="n">
+      <c r="AQ5" t="n">
         <v>4</v>
       </c>
-      <c r="AQ5" t="n">
+      <c r="AR5" t="n">
         <v>-1</v>
       </c>
-      <c r="AR5" t="n">
+      <c r="AS5" t="n">
         <v>3.5</v>
       </c>
     </row>
@@ -1231,14 +1174,16 @@
           <t>CG</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>COG</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
         <v>7.3</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.8</v>
-      </c>
-      <c r="F6" t="n">
-        <v>3.5</v>
       </c>
       <c r="G6" t="n">
         <v>3.5</v>
@@ -1256,102 +1201,105 @@
         <v>3.5</v>
       </c>
       <c r="L6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M6" t="n">
         <v>-13</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>-9.6</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>0.3</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>9.4</v>
       </c>
-      <c r="P6" t="n">
+      <c r="Q6" t="n">
         <v>-3.2</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="R6" t="n">
         <v>-4.1</v>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>7.5</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>6.3</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>7.4</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>12.7</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>2.2</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>3</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Y6" t="n">
         <v>0.5</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="Z6" t="n">
         <v>0.8</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="AA6" t="n">
         <v>3</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AB6" t="n">
         <v>1.7</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AC6" t="n">
         <v>3.7</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AD6" t="n">
         <v>2.5</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AE6" t="n">
         <v>3.7</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AF6" t="n">
         <v>2.6</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AG6" t="n">
         <v>6</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AH6" t="n">
         <v>4.3</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AI6" t="n">
         <v>0.4</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AJ6" t="n">
         <v>1.8</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AK6" t="n">
         <v>5</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AL6" t="n">
         <v>4.6</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AM6" t="n">
         <v>0.9</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>3.2</v>
       </c>
       <c r="AN6" t="n">
         <v>3.2</v>
       </c>
       <c r="AO6" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AP6" t="n">
         <v>0.4</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AQ6" t="n">
         <v>1.2</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="AR6" t="n">
         <v>2.2</v>
       </c>
-      <c r="AR6" t="n">
+      <c r="AS6" t="n">
         <v>2.4</v>
       </c>
     </row>
@@ -1371,127 +1319,132 @@
           <t>CD</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>COD</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
         <v>40</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>34.9</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>37.1</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>76.7</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>52.6</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>23.5</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>46.7</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>90.40000000000001</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>82.7</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>104.1</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
         <v>81.3</v>
       </c>
-      <c r="O7" t="n">
+      <c r="P7" t="n">
         <v>2154.4</v>
       </c>
-      <c r="P7" t="n">
+      <c r="Q7" t="n">
         <v>4129.2</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="R7" t="n">
         <v>1986.9</v>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>23773.1</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>541.8</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>617</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>199</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>29.1</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>284.9</v>
       </c>
-      <c r="X7" t="n">
+      <c r="Y7" t="n">
         <v>550</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="Z7" t="n">
         <v>357.3</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="AA7" t="n">
         <v>25.3</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AB7" t="n">
         <v>12.8</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AC7" t="n">
         <v>4</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AD7" t="n">
         <v>21.5</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AE7" t="n">
         <v>12.8</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AF7" t="n">
         <v>16.7</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AG7" t="n">
         <v>18</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AH7" t="n">
         <v>46.1</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AI7" t="n">
         <v>23.5</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AJ7" t="n">
         <v>14.9</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>0.9</v>
       </c>
       <c r="AK7" t="n">
         <v>0.9</v>
       </c>
       <c r="AL7" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AM7" t="n">
         <v>1.2</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AN7" t="n">
         <v>0.7</v>
       </c>
-      <c r="AN7" t="n">
+      <c r="AO7" t="n">
         <v>3.2</v>
       </c>
-      <c r="AO7" t="n">
+      <c r="AP7" t="n">
         <v>35.8</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AQ7" t="n">
         <v>29.3</v>
       </c>
-      <c r="AQ7" t="n">
+      <c r="AR7" t="n">
         <v>4.7</v>
       </c>
-      <c r="AR7" t="n">
+      <c r="AS7" t="n">
         <v>11.3</v>
       </c>
     </row>
@@ -1511,127 +1464,132 @@
           <t>GQ</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>GNQ</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
         <v>0</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>16.7</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>38.3</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>60.1</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>59.5</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>84</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>-17.6</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>-13.2</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
         <v>2.5</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>6.1</v>
       </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
         <v>0.9</v>
       </c>
-      <c r="O8" t="n">
+      <c r="P8" t="n">
         <v>-3.4</v>
       </c>
-      <c r="P8" t="n">
+      <c r="Q8" t="n">
         <v>-4.3</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="R8" t="n">
         <v>5.5</v>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>31.8</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>19.9</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>4.5</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>3</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>7.9</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>0.4</v>
       </c>
-      <c r="X8" t="n">
+      <c r="Y8" t="n">
         <v>4.8</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="Z8" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="AA8" t="n">
         <v>7.6</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AB8" t="n">
         <v>7.3</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AC8" t="n">
         <v>4.2</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AD8" t="n">
         <v>5.6</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AE8" t="n">
         <v>4.5</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AF8" t="n">
         <v>2.8</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AG8" t="n">
         <v>4.7</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AH8" t="n">
         <v>5.7</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AI8" t="n">
         <v>5.3</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AJ8" t="n">
         <v>4.8</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AK8" t="n">
         <v>3.4</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="AL8" t="n">
         <v>3.2</v>
       </c>
-      <c r="AL8" t="n">
+      <c r="AM8" t="n">
         <v>4.3</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AN8" t="n">
         <v>1.7</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AO8" t="n">
         <v>1.4</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AP8" t="n">
         <v>0.7</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AQ8" t="n">
         <v>1.3</v>
       </c>
-      <c r="AQ8" t="n">
+      <c r="AR8" t="n">
         <v>1.2</v>
       </c>
-      <c r="AR8" t="n">
+      <c r="AS8" t="n">
         <v>4.8</v>
       </c>
     </row>
@@ -1651,127 +1609,132 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>GAB</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
         <v>12.3</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>8.6</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>16.7</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>10.4</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>5.9</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>7.3</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>6.4</v>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
         <v>-1</v>
       </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
         <v>-9.800000000000001</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>6.9</v>
       </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
         <v>15.4</v>
       </c>
-      <c r="O9" t="n">
+      <c r="P9" t="n">
         <v>-9.800000000000001</v>
       </c>
-      <c r="P9" t="n">
+      <c r="Q9" t="n">
         <v>-9.5</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="R9" t="n">
         <v>0.5</v>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>36.1</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>9.6</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>0.7</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>4</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>1.4</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-1.9</v>
       </c>
-      <c r="X9" t="n">
+      <c r="Y9" t="n">
         <v>0.5</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="Z9" t="n">
         <v>2.1</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="AA9" t="n">
         <v>0.2</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AB9" t="n">
         <v>2.1</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AC9" t="n">
         <v>0.4</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AD9" t="n">
         <v>1.2</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AE9" t="n">
         <v>-1.4</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AF9" t="n">
         <v>-1</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AG9" t="n">
         <v>5.3</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AH9" t="n">
         <v>1.9</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AI9" t="n">
         <v>1.4</v>
       </c>
-      <c r="AI9" t="n">
+      <c r="AJ9" t="n">
         <v>1.3</v>
       </c>
-      <c r="AJ9" t="n">
+      <c r="AK9" t="n">
         <v>2.7</v>
       </c>
-      <c r="AK9" t="n">
+      <c r="AL9" t="n">
         <v>0.5</v>
       </c>
-      <c r="AL9" t="n">
+      <c r="AM9" t="n">
         <v>4.5</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AN9" t="n">
         <v>-0.1</v>
       </c>
-      <c r="AN9" t="n">
+      <c r="AO9" t="n">
         <v>2.1</v>
       </c>
-      <c r="AO9" t="n">
+      <c r="AP9" t="n">
         <v>2.7</v>
       </c>
-      <c r="AP9" t="n">
+      <c r="AQ9" t="n">
         <v>4.8</v>
       </c>
-      <c r="AQ9" t="n">
+      <c r="AR9" t="n">
         <v>2</v>
       </c>
-      <c r="AR9" t="n">
+      <c r="AS9" t="n">
         <v>1.3</v>
       </c>
     </row>
@@ -1791,127 +1754,132 @@
           <t>ST</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>STP</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
         <v>0.2</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>11.5</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>0.4</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>7</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>3.2</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>0.1</v>
       </c>
-      <c r="J10" t="n">
+      <c r="K10" t="n">
         <v>13.9</v>
       </c>
-      <c r="K10" t="n">
+      <c r="L10" t="n">
         <v>25</v>
       </c>
-      <c r="L10" t="n">
+      <c r="M10" t="n">
         <v>44.3</v>
       </c>
-      <c r="M10" t="n">
+      <c r="N10" t="n">
         <v>42.9</v>
       </c>
-      <c r="N10" t="n">
+      <c r="O10" t="n">
         <v>42.2</v>
       </c>
-      <c r="O10" t="n">
+      <c r="P10" t="n">
         <v>46.5</v>
       </c>
-      <c r="P10" t="n">
+      <c r="Q10" t="n">
         <v>33.7</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="R10" t="n">
         <v>25.5</v>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>51.2</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>36.8</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>42</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>69</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>42.1</v>
-      </c>
-      <c r="W10" t="n">
-        <v>11</v>
       </c>
       <c r="X10" t="n">
         <v>11</v>
       </c>
       <c r="Y10" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z10" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="AA10" t="n">
         <v>10.1</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AB10" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AC10" t="n">
         <v>13.3</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AD10" t="n">
         <v>17.2</v>
       </c>
-      <c r="AD10" t="n">
+      <c r="AE10" t="n">
         <v>23.1</v>
       </c>
-      <c r="AE10" t="n">
+      <c r="AF10" t="n">
         <v>18.6</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="AG10" t="n">
         <v>32</v>
       </c>
-      <c r="AG10" t="n">
+      <c r="AH10" t="n">
         <v>17</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="AI10" t="n">
         <v>13.3</v>
       </c>
-      <c r="AI10" t="n">
+      <c r="AJ10" t="n">
         <v>14.3</v>
       </c>
-      <c r="AJ10" t="n">
+      <c r="AK10" t="n">
         <v>10.6</v>
       </c>
-      <c r="AK10" t="n">
+      <c r="AL10" t="n">
         <v>8.1</v>
       </c>
-      <c r="AL10" t="n">
+      <c r="AM10" t="n">
         <v>7</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AN10" t="n">
         <v>6.1</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AO10" t="n">
         <v>5.4</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AP10" t="n">
         <v>5.7</v>
       </c>
-      <c r="AP10" t="n">
+      <c r="AQ10" t="n">
         <v>7.9</v>
       </c>
-      <c r="AQ10" t="n">
+      <c r="AR10" t="n">
         <v>7.7</v>
       </c>
-      <c r="AR10" t="n">
+      <c r="AS10" t="n">
         <v>9.800000000000001</v>
       </c>
     </row>
@@ -1931,127 +1899,132 @@
           <t>KM</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>COM</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
         <v>13.3</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>6.5</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>15.2</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>6.1</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>8.4</v>
       </c>
-      <c r="J11" t="n">
+      <c r="K11" t="n">
         <v>-11.3</v>
       </c>
-      <c r="K11" t="n">
+      <c r="L11" t="n">
         <v>3.3</v>
       </c>
-      <c r="L11" t="n">
+      <c r="M11" t="n">
         <v>0.3</v>
       </c>
-      <c r="M11" t="n">
+      <c r="N11" t="n">
         <v>4.4</v>
       </c>
-      <c r="N11" t="n">
+      <c r="O11" t="n">
         <v>-7.4</v>
       </c>
-      <c r="O11" t="n">
+      <c r="P11" t="n">
         <v>1.7</v>
       </c>
-      <c r="P11" t="n">
+      <c r="Q11" t="n">
         <v>-1.4</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="R11" t="n">
         <v>2</v>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>25.3</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>3.2</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>2.4</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>1.5</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>1.2</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>1.1</v>
       </c>
-      <c r="X11" t="n">
+      <c r="Y11" t="n">
         <v>5.9</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="Z11" t="n">
         <v>5.6</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="AA11" t="n">
         <v>3.6</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AB11" t="n">
         <v>3.7</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AC11" t="n">
         <v>4.5</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AD11" t="n">
         <v>3</v>
       </c>
-      <c r="AD11" t="n">
+      <c r="AE11" t="n">
         <v>3.4</v>
       </c>
-      <c r="AE11" t="n">
+      <c r="AF11" t="n">
         <v>4.5</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>4.8</v>
       </c>
       <c r="AG11" t="n">
         <v>4.8</v>
       </c>
       <c r="AH11" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AI11" t="n">
         <v>3.9</v>
       </c>
-      <c r="AI11" t="n">
+      <c r="AJ11" t="n">
         <v>2.2</v>
       </c>
-      <c r="AJ11" t="n">
+      <c r="AK11" t="n">
         <v>5.9</v>
       </c>
-      <c r="AK11" t="n">
+      <c r="AL11" t="n">
         <v>0.4</v>
       </c>
-      <c r="AL11" t="n">
+      <c r="AM11" t="n">
         <v>0</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AN11" t="n">
         <v>0.9</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AO11" t="n">
         <v>0.8</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AP11" t="n">
         <v>0.1</v>
       </c>
-      <c r="AP11" t="n">
+      <c r="AQ11" t="n">
         <v>1.7</v>
       </c>
-      <c r="AQ11" t="n">
+      <c r="AR11" t="n">
         <v>3.7</v>
       </c>
-      <c r="AR11" t="n">
+      <c r="AS11" t="n">
         <v>1.1</v>
       </c>
     </row>
@@ -2071,7 +2044,11 @@
           <t>DJ</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>DJI</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -2082,94 +2059,95 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
-      <c r="O12" t="n">
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="n">
         <v>6.8</v>
       </c>
-      <c r="P12" t="n">
+      <c r="Q12" t="n">
         <v>3.4</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="R12" t="n">
         <v>4.4</v>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>6.5</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>4.9</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>3.5</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>2.5</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>2.2</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-0.4</v>
       </c>
-      <c r="X12" t="n">
+      <c r="Y12" t="n">
         <v>1.2</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="Z12" t="n">
         <v>1.9</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="AA12" t="n">
         <v>1.4</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AB12" t="n">
         <v>1.6</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AC12" t="n">
         <v>2.4</v>
       </c>
-      <c r="AC12" t="n">
+      <c r="AD12" t="n">
         <v>3.3</v>
       </c>
-      <c r="AD12" t="n">
+      <c r="AE12" t="n">
         <v>3.5</v>
       </c>
-      <c r="AE12" t="n">
+      <c r="AF12" t="n">
         <v>5.9</v>
       </c>
-      <c r="AF12" t="n">
+      <c r="AG12" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="AG12" t="n">
+      <c r="AH12" t="n">
         <v>5.6</v>
       </c>
-      <c r="AH12" t="n">
+      <c r="AI12" t="n">
         <v>2.5</v>
       </c>
-      <c r="AI12" t="n">
+      <c r="AJ12" t="n">
         <v>5.2</v>
       </c>
-      <c r="AJ12" t="n">
+      <c r="AK12" t="n">
         <v>4.2</v>
       </c>
-      <c r="AK12" t="n">
+      <c r="AL12" t="n">
         <v>1.1</v>
       </c>
-      <c r="AL12" t="n">
+      <c r="AM12" t="n">
         <v>1.3</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AN12" t="n">
         <v>-0.8</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AO12" t="n">
         <v>2.7</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AP12" t="n">
         <v>0.6</v>
       </c>
-      <c r="AP12" t="n">
+      <c r="AQ12" t="n">
         <v>0.1</v>
       </c>
-      <c r="AQ12" t="n">
+      <c r="AR12" t="n">
         <v>3.3</v>
       </c>
-      <c r="AR12" t="n">
+      <c r="AS12" t="n">
         <v>2.9</v>
       </c>
     </row>
@@ -2189,7 +2167,11 @@
           <t>ER</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ERI</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -2202,88 +2184,89 @@
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="n">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="n">
         <v>4.8</v>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>13.1</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>12</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>10.3</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>3.7</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>9.5</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>8.4</v>
       </c>
-      <c r="X13" t="n">
+      <c r="Y13" t="n">
         <v>19.9</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="Z13" t="n">
         <v>14.6</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="AA13" t="n">
         <v>16.9</v>
       </c>
-      <c r="AA13" t="n">
+      <c r="AB13" t="n">
         <v>22.7</v>
       </c>
-      <c r="AB13" t="n">
+      <c r="AC13" t="n">
         <v>25.1</v>
       </c>
-      <c r="AC13" t="n">
+      <c r="AD13" t="n">
         <v>12.5</v>
       </c>
-      <c r="AD13" t="n">
+      <c r="AE13" t="n">
         <v>15.1</v>
       </c>
-      <c r="AE13" t="n">
+      <c r="AF13" t="n">
         <v>9.4</v>
       </c>
-      <c r="AF13" t="n">
+      <c r="AG13" t="n">
         <v>22.2</v>
       </c>
-      <c r="AG13" t="n">
+      <c r="AH13" t="n">
         <v>33.9</v>
       </c>
-      <c r="AH13" t="n">
+      <c r="AI13" t="n">
         <v>10.3</v>
       </c>
-      <c r="AI13" t="n">
+      <c r="AJ13" t="n">
         <v>5.9</v>
       </c>
-      <c r="AJ13" t="n">
+      <c r="AK13" t="n">
         <v>4.8</v>
       </c>
-      <c r="AK13" t="n">
+      <c r="AL13" t="n">
         <v>5.9</v>
       </c>
-      <c r="AL13" t="n">
+      <c r="AM13" t="n">
         <v>10</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AN13" t="n">
         <v>28.5</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AO13" t="n">
         <v>-5.6</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AP13" t="n">
         <v>-13.3</v>
       </c>
-      <c r="AP13" t="n">
+      <c r="AQ13" t="n">
         <v>-14.4</v>
       </c>
-      <c r="AQ13" t="n">
+      <c r="AR13" t="n">
         <v>-16.4</v>
       </c>
-      <c r="AR13" t="n">
+      <c r="AS13" t="n">
         <v>4.9</v>
       </c>
     </row>
@@ -2303,127 +2286,132 @@
           <t>ET</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ETH</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
         <v>12.4</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>1.9</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>7.8</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>3.6</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>-0.3</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>18.4</v>
       </c>
-      <c r="J14" t="n">
+      <c r="K14" t="n">
         <v>5.5</v>
       </c>
-      <c r="K14" t="n">
+      <c r="L14" t="n">
         <v>-9.1</v>
       </c>
-      <c r="L14" t="n">
+      <c r="M14" t="n">
         <v>2.2</v>
       </c>
-      <c r="M14" t="n">
+      <c r="N14" t="n">
         <v>9.6</v>
       </c>
-      <c r="N14" t="n">
+      <c r="O14" t="n">
         <v>5.2</v>
       </c>
-      <c r="O14" t="n">
+      <c r="P14" t="n">
         <v>20.9</v>
       </c>
-      <c r="P14" t="n">
+      <c r="Q14" t="n">
         <v>21</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="R14" t="n">
         <v>10</v>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>1.2</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>13.4</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>0.9</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-6.4</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>3.6</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>7.9</v>
       </c>
-      <c r="X14" t="n">
+      <c r="Y14" t="n">
         <v>0.7</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="Z14" t="n">
         <v>-8.199999999999999</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="AA14" t="n">
         <v>1.7</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AB14" t="n">
         <v>17.8</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AC14" t="n">
         <v>3.2</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AD14" t="n">
         <v>11.7</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AE14" t="n">
         <v>13.6</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AF14" t="n">
         <v>17.2</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="AG14" t="n">
         <v>44.4</v>
       </c>
-      <c r="AG14" t="n">
+      <c r="AH14" t="n">
         <v>8.5</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AI14" t="n">
         <v>8.1</v>
       </c>
-      <c r="AI14" t="n">
+      <c r="AJ14" t="n">
         <v>33.2</v>
       </c>
-      <c r="AJ14" t="n">
+      <c r="AK14" t="n">
         <v>24.1</v>
       </c>
-      <c r="AK14" t="n">
+      <c r="AL14" t="n">
         <v>8.1</v>
       </c>
-      <c r="AL14" t="n">
+      <c r="AM14" t="n">
         <v>7.4</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AN14" t="n">
         <v>9.6</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AO14" t="n">
         <v>6.6</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AP14" t="n">
         <v>10.7</v>
       </c>
-      <c r="AP14" t="n">
+      <c r="AQ14" t="n">
         <v>13.8</v>
       </c>
-      <c r="AQ14" t="n">
+      <c r="AR14" t="n">
         <v>15.8</v>
       </c>
-      <c r="AR14" t="n">
+      <c r="AS14" t="n">
         <v>20.4</v>
       </c>
     </row>
@@ -2443,127 +2431,132 @@
           <t>KE</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>KEN</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
         <v>13.9</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>11.6</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>20.7</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>11.4</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>10.3</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>13</v>
       </c>
-      <c r="J15" t="n">
+      <c r="K15" t="n">
         <v>2.5</v>
       </c>
-      <c r="K15" t="n">
+      <c r="L15" t="n">
         <v>8.6</v>
       </c>
-      <c r="L15" t="n">
+      <c r="M15" t="n">
         <v>12.3</v>
       </c>
-      <c r="M15" t="n">
+      <c r="N15" t="n">
         <v>13.8</v>
       </c>
-      <c r="N15" t="n">
+      <c r="O15" t="n">
         <v>17.8</v>
       </c>
-      <c r="O15" t="n">
+      <c r="P15" t="n">
         <v>20.1</v>
       </c>
-      <c r="P15" t="n">
+      <c r="Q15" t="n">
         <v>27.3</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="R15" t="n">
         <v>46</v>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>28.8</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>1.6</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>8.9</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>12.1</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>5.6</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>5</v>
       </c>
-      <c r="X15" t="n">
+      <c r="Y15" t="n">
         <v>7.8</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="Z15" t="n">
         <v>5.8</v>
       </c>
-      <c r="Z15" t="n">
+      <c r="AA15" t="n">
         <v>2.2</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AB15" t="n">
         <v>6</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AC15" t="n">
         <v>8.4</v>
       </c>
-      <c r="AC15" t="n">
+      <c r="AD15" t="n">
         <v>7.8</v>
       </c>
-      <c r="AD15" t="n">
+      <c r="AE15" t="n">
         <v>6</v>
       </c>
-      <c r="AE15" t="n">
+      <c r="AF15" t="n">
         <v>4.3</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AG15" t="n">
         <v>15.1</v>
       </c>
-      <c r="AG15" t="n">
+      <c r="AH15" t="n">
         <v>10.6</v>
       </c>
-      <c r="AH15" t="n">
+      <c r="AI15" t="n">
         <v>4.3</v>
       </c>
-      <c r="AI15" t="n">
+      <c r="AJ15" t="n">
         <v>14</v>
       </c>
-      <c r="AJ15" t="n">
+      <c r="AK15" t="n">
         <v>9.4</v>
       </c>
-      <c r="AK15" t="n">
+      <c r="AL15" t="n">
         <v>5.7</v>
       </c>
-      <c r="AL15" t="n">
+      <c r="AM15" t="n">
         <v>6.9</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AN15" t="n">
         <v>6.6</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AO15" t="n">
         <v>6.3</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AP15" t="n">
         <v>8</v>
       </c>
-      <c r="AP15" t="n">
+      <c r="AQ15" t="n">
         <v>4.7</v>
       </c>
-      <c r="AQ15" t="n">
+      <c r="AR15" t="n">
         <v>5.2</v>
       </c>
-      <c r="AR15" t="n">
+      <c r="AS15" t="n">
         <v>5.3</v>
       </c>
     </row>
@@ -2583,127 +2576,132 @@
           <t>MG</t>
         </is>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
         <v>18.3</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>30.5</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>31.9</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>19.5</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>9.699999999999999</v>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>10.6</v>
       </c>
-      <c r="J16" t="n">
+      <c r="K16" t="n">
         <v>14.5</v>
       </c>
-      <c r="K16" t="n">
+      <c r="L16" t="n">
         <v>15.5</v>
       </c>
-      <c r="L16" t="n">
+      <c r="M16" t="n">
         <v>26.3</v>
       </c>
-      <c r="M16" t="n">
+      <c r="N16" t="n">
         <v>9</v>
       </c>
-      <c r="N16" t="n">
+      <c r="O16" t="n">
         <v>11.9</v>
       </c>
-      <c r="O16" t="n">
+      <c r="P16" t="n">
         <v>8.5</v>
       </c>
-      <c r="P16" t="n">
+      <c r="Q16" t="n">
         <v>14.6</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="R16" t="n">
         <v>10</v>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>39</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>49</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>19.8</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>4.5</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>6.2</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>7.2</v>
       </c>
-      <c r="X16" t="n">
+      <c r="Y16" t="n">
         <v>11.6</v>
       </c>
-      <c r="Y16" t="n">
+      <c r="Z16" t="n">
         <v>7.9</v>
       </c>
-      <c r="Z16" t="n">
+      <c r="AA16" t="n">
         <v>16.5</v>
       </c>
-      <c r="AA16" t="n">
+      <c r="AB16" t="n">
         <v>-1.7</v>
       </c>
-      <c r="AB16" t="n">
+      <c r="AC16" t="n">
         <v>14</v>
       </c>
-      <c r="AC16" t="n">
+      <c r="AD16" t="n">
         <v>18.4</v>
       </c>
-      <c r="AD16" t="n">
+      <c r="AE16" t="n">
         <v>10.8</v>
       </c>
-      <c r="AE16" t="n">
+      <c r="AF16" t="n">
         <v>10.3</v>
       </c>
-      <c r="AF16" t="n">
+      <c r="AG16" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="AG16" t="n">
+      <c r="AH16" t="n">
         <v>9</v>
       </c>
-      <c r="AH16" t="n">
+      <c r="AI16" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="AI16" t="n">
+      <c r="AJ16" t="n">
         <v>9.5</v>
       </c>
-      <c r="AJ16" t="n">
+      <c r="AK16" t="n">
         <v>5.7</v>
       </c>
-      <c r="AK16" t="n">
+      <c r="AL16" t="n">
         <v>5.8</v>
       </c>
-      <c r="AL16" t="n">
+      <c r="AM16" t="n">
         <v>6.1</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AN16" t="n">
         <v>7.4</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AO16" t="n">
         <v>6.1</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>8.6</v>
       </c>
       <c r="AP16" t="n">
         <v>8.6</v>
       </c>
       <c r="AQ16" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AR16" t="n">
         <v>5.6</v>
       </c>
-      <c r="AR16" t="n">
+      <c r="AS16" t="n">
         <v>4.2</v>
       </c>
     </row>
@@ -2723,127 +2721,132 @@
           <t>MU</t>
         </is>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>MUS</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
         <v>33</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>26.4</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>13.4</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>7.5</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>5.5</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="J17" t="n">
+      <c r="K17" t="n">
         <v>4.3</v>
       </c>
-      <c r="K17" t="n">
+      <c r="L17" t="n">
         <v>0.7</v>
       </c>
-      <c r="L17" t="n">
+      <c r="M17" t="n">
         <v>3.6</v>
       </c>
-      <c r="M17" t="n">
+      <c r="N17" t="n">
         <v>13.6</v>
       </c>
-      <c r="N17" t="n">
+      <c r="O17" t="n">
         <v>10.7</v>
       </c>
-      <c r="O17" t="n">
+      <c r="P17" t="n">
         <v>12.8</v>
       </c>
-      <c r="P17" t="n">
+      <c r="Q17" t="n">
         <v>2.9</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="R17" t="n">
         <v>15.3</v>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>7.3</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>6</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>6.6</v>
-      </c>
-      <c r="U17" t="n">
-        <v>6.8</v>
       </c>
       <c r="V17" t="n">
         <v>6.8</v>
       </c>
       <c r="W17" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="X17" t="n">
         <v>6.9</v>
       </c>
-      <c r="X17" t="n">
+      <c r="Y17" t="n">
         <v>4.2</v>
       </c>
-      <c r="Y17" t="n">
+      <c r="Z17" t="n">
         <v>5.4</v>
       </c>
-      <c r="Z17" t="n">
+      <c r="AA17" t="n">
         <v>6.4</v>
       </c>
-      <c r="AA17" t="n">
+      <c r="AB17" t="n">
         <v>2.7</v>
       </c>
-      <c r="AB17" t="n">
+      <c r="AC17" t="n">
         <v>4.7</v>
       </c>
-      <c r="AC17" t="n">
+      <c r="AD17" t="n">
         <v>4.9</v>
       </c>
-      <c r="AD17" t="n">
+      <c r="AE17" t="n">
         <v>8.9</v>
       </c>
-      <c r="AE17" t="n">
+      <c r="AF17" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="AF17" t="n">
+      <c r="AG17" t="n">
         <v>9.699999999999999</v>
       </c>
-      <c r="AG17" t="n">
+      <c r="AH17" t="n">
         <v>2.5</v>
       </c>
-      <c r="AH17" t="n">
+      <c r="AI17" t="n">
         <v>2.9</v>
       </c>
-      <c r="AI17" t="n">
+      <c r="AJ17" t="n">
         <v>6.5</v>
       </c>
-      <c r="AJ17" t="n">
+      <c r="AK17" t="n">
         <v>3.9</v>
       </c>
-      <c r="AK17" t="n">
+      <c r="AL17" t="n">
         <v>3.5</v>
       </c>
-      <c r="AL17" t="n">
+      <c r="AM17" t="n">
         <v>3.2</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AN17" t="n">
         <v>1.3</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AO17" t="n">
         <v>1</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AP17" t="n">
         <v>3.7</v>
       </c>
-      <c r="AP17" t="n">
+      <c r="AQ17" t="n">
         <v>3.2</v>
       </c>
-      <c r="AQ17" t="n">
+      <c r="AR17" t="n">
         <v>0.5</v>
       </c>
-      <c r="AR17" t="n">
+      <c r="AS17" t="n">
         <v>2.5</v>
       </c>
     </row>
@@ -2863,127 +2866,132 @@
           <t>RW</t>
         </is>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>RWA</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
         <v>7.2</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>6.4</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>12.6</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>6.6</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>5.4</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>1.7</v>
       </c>
-      <c r="J18" t="n">
+      <c r="K18" t="n">
         <v>-1.1</v>
       </c>
-      <c r="K18" t="n">
+      <c r="L18" t="n">
         <v>4.1</v>
       </c>
-      <c r="L18" t="n">
+      <c r="M18" t="n">
         <v>2.9</v>
       </c>
-      <c r="M18" t="n">
+      <c r="N18" t="n">
         <v>1</v>
       </c>
-      <c r="N18" t="n">
+      <c r="O18" t="n">
         <v>4.2</v>
       </c>
-      <c r="O18" t="n">
+      <c r="P18" t="n">
         <v>19.6</v>
       </c>
-      <c r="P18" t="n">
+      <c r="Q18" t="n">
         <v>9.5</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="R18" t="n">
         <v>12.5</v>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>21</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>56</v>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>13.2</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
         <v>11.8</v>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>6.5</v>
       </c>
-      <c r="W18" t="n">
+      <c r="X18" t="n">
         <v>-2.4</v>
       </c>
-      <c r="X18" t="n">
+      <c r="Y18" t="n">
         <v>3.9</v>
       </c>
-      <c r="Y18" t="n">
+      <c r="Z18" t="n">
         <v>3.4</v>
       </c>
-      <c r="Z18" t="n">
+      <c r="AA18" t="n">
         <v>2</v>
       </c>
-      <c r="AA18" t="n">
+      <c r="AB18" t="n">
         <v>7.4</v>
       </c>
-      <c r="AB18" t="n">
+      <c r="AC18" t="n">
         <v>12</v>
       </c>
-      <c r="AC18" t="n">
+      <c r="AD18" t="n">
         <v>9.1</v>
       </c>
-      <c r="AD18" t="n">
+      <c r="AE18" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="AE18" t="n">
+      <c r="AF18" t="n">
         <v>9.1</v>
       </c>
-      <c r="AF18" t="n">
+      <c r="AG18" t="n">
         <v>15.4</v>
       </c>
-      <c r="AG18" t="n">
+      <c r="AH18" t="n">
         <v>10.3</v>
       </c>
-      <c r="AH18" t="n">
+      <c r="AI18" t="n">
         <v>2.3</v>
       </c>
-      <c r="AI18" t="n">
+      <c r="AJ18" t="n">
         <v>5.7</v>
       </c>
-      <c r="AJ18" t="n">
+      <c r="AK18" t="n">
         <v>6.3</v>
       </c>
-      <c r="AK18" t="n">
+      <c r="AL18" t="n">
         <v>4.2</v>
       </c>
-      <c r="AL18" t="n">
+      <c r="AM18" t="n">
         <v>1.8</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AN18" t="n">
         <v>2.5</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AO18" t="n">
         <v>5.7</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AP18" t="n">
         <v>4.8</v>
       </c>
-      <c r="AP18" t="n">
+      <c r="AQ18" t="n">
         <v>1.4</v>
       </c>
-      <c r="AQ18" t="n">
+      <c r="AR18" t="n">
         <v>2.4</v>
       </c>
-      <c r="AR18" t="n">
+      <c r="AS18" t="n">
         <v>8</v>
       </c>
     </row>
@@ -3003,127 +3011,132 @@
           <t>SC</t>
         </is>
       </c>
-      <c r="D19" t="n">
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>SYC</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
         <v>13.5</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>10.5</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>-0.9</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>6.6</v>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>1.2</v>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>0.6</v>
       </c>
-      <c r="J19" t="n">
+      <c r="K19" t="n">
         <v>2.4</v>
       </c>
-      <c r="K19" t="n">
+      <c r="L19" t="n">
         <v>2.2</v>
       </c>
-      <c r="L19" t="n">
+      <c r="M19" t="n">
         <v>0.5</v>
       </c>
-      <c r="M19" t="n">
+      <c r="N19" t="n">
         <v>3.3</v>
       </c>
-      <c r="N19" t="n">
+      <c r="O19" t="n">
         <v>4</v>
-      </c>
-      <c r="O19" t="n">
-        <v>2</v>
       </c>
       <c r="P19" t="n">
         <v>2</v>
       </c>
       <c r="Q19" t="n">
+        <v>2</v>
+      </c>
+      <c r="R19" t="n">
         <v>-0.3</v>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>2.2</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>0.5</v>
       </c>
-      <c r="T19" t="n">
+      <c r="U19" t="n">
         <v>-2.1</v>
       </c>
-      <c r="U19" t="n">
+      <c r="V19" t="n">
         <v>1.8</v>
       </c>
-      <c r="V19" t="n">
+      <c r="W19" t="n">
         <v>2.7</v>
-      </c>
-      <c r="W19" t="n">
-        <v>6.3</v>
       </c>
       <c r="X19" t="n">
         <v>6.3</v>
       </c>
       <c r="Y19" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="Z19" t="n">
         <v>6</v>
       </c>
-      <c r="Z19" t="n">
+      <c r="AA19" t="n">
         <v>0.2</v>
       </c>
-      <c r="AA19" t="n">
+      <c r="AB19" t="n">
         <v>3.3</v>
       </c>
-      <c r="AB19" t="n">
+      <c r="AC19" t="n">
         <v>3.9</v>
       </c>
-      <c r="AC19" t="n">
+      <c r="AD19" t="n">
         <v>0.6</v>
       </c>
-      <c r="AD19" t="n">
+      <c r="AE19" t="n">
         <v>-1.9</v>
       </c>
-      <c r="AE19" t="n">
+      <c r="AF19" t="n">
         <v>5.3</v>
       </c>
-      <c r="AF19" t="n">
+      <c r="AG19" t="n">
         <v>37</v>
       </c>
-      <c r="AG19" t="n">
+      <c r="AH19" t="n">
         <v>31.8</v>
       </c>
-      <c r="AH19" t="n">
+      <c r="AI19" t="n">
         <v>-2.4</v>
       </c>
-      <c r="AI19" t="n">
+      <c r="AJ19" t="n">
         <v>2.6</v>
       </c>
-      <c r="AJ19" t="n">
+      <c r="AK19" t="n">
         <v>7.1</v>
       </c>
-      <c r="AK19" t="n">
+      <c r="AL19" t="n">
         <v>4.3</v>
       </c>
-      <c r="AL19" t="n">
+      <c r="AM19" t="n">
         <v>1.4</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AN19" t="n">
         <v>4</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AO19" t="n">
         <v>-1</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AP19" t="n">
         <v>2.9</v>
       </c>
-      <c r="AP19" t="n">
+      <c r="AQ19" t="n">
         <v>3.7</v>
       </c>
-      <c r="AQ19" t="n">
+      <c r="AR19" t="n">
         <v>1.8</v>
       </c>
-      <c r="AR19" t="n">
+      <c r="AS19" t="n">
         <v>1.2</v>
       </c>
     </row>
@@ -3143,7 +3156,11 @@
           <t>SS</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>SSD</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -3175,31 +3192,32 @@
       <c r="AG20" t="inlineStr"/>
       <c r="AH20" t="inlineStr"/>
       <c r="AI20" t="inlineStr"/>
-      <c r="AJ20" t="n">
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="n">
         <v>45.1</v>
       </c>
-      <c r="AK20" t="n">
+      <c r="AL20" t="n">
         <v>0</v>
       </c>
-      <c r="AL20" t="n">
+      <c r="AM20" t="n">
         <v>1.7</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AN20" t="n">
         <v>52.8</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AO20" t="n">
         <v>379.8</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AP20" t="n">
         <v>187.9</v>
       </c>
-      <c r="AP20" t="n">
+      <c r="AQ20" t="n">
         <v>83.5</v>
       </c>
-      <c r="AQ20" t="n">
+      <c r="AR20" t="n">
         <v>51.2</v>
       </c>
-      <c r="AR20" t="n">
+      <c r="AS20" t="n">
         <v>38</v>
       </c>
     </row>
@@ -3219,127 +3237,132 @@
           <t>SD</t>
         </is>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>SDN</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
         <v>26.5</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>24</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>26.6</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21" t="n">
         <v>30.6</v>
       </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
         <v>33.7</v>
       </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
         <v>45.6</v>
       </c>
-      <c r="J21" t="n">
+      <c r="K21" t="n">
         <v>60</v>
       </c>
-      <c r="K21" t="n">
+      <c r="L21" t="n">
         <v>26.5</v>
       </c>
-      <c r="L21" t="n">
+      <c r="M21" t="n">
         <v>62.9</v>
       </c>
-      <c r="M21" t="n">
+      <c r="N21" t="n">
         <v>65.3</v>
       </c>
-      <c r="N21" t="n">
+      <c r="O21" t="n">
         <v>-0.9</v>
       </c>
-      <c r="O21" t="n">
+      <c r="P21" t="n">
         <v>123.6</v>
       </c>
-      <c r="P21" t="n">
+      <c r="Q21" t="n">
         <v>117.6</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="R21" t="n">
         <v>101.3</v>
       </c>
-      <c r="R21" t="n">
+      <c r="S21" t="n">
         <v>115.5</v>
       </c>
-      <c r="S21" t="n">
+      <c r="T21" t="n">
         <v>68.40000000000001</v>
       </c>
-      <c r="T21" t="n">
+      <c r="U21" t="n">
         <v>86.8</v>
       </c>
-      <c r="U21" t="n">
+      <c r="V21" t="n">
         <v>47.2</v>
       </c>
-      <c r="V21" t="n">
+      <c r="W21" t="n">
         <v>24.6</v>
       </c>
-      <c r="W21" t="n">
+      <c r="X21" t="n">
         <v>17.2</v>
       </c>
-      <c r="X21" t="n">
+      <c r="Y21" t="n">
         <v>7.1</v>
       </c>
-      <c r="Y21" t="n">
+      <c r="Z21" t="n">
         <v>1.9</v>
       </c>
-      <c r="Z21" t="n">
+      <c r="AA21" t="n">
         <v>22.2</v>
       </c>
-      <c r="AA21" t="n">
+      <c r="AB21" t="n">
         <v>6.5</v>
       </c>
-      <c r="AB21" t="n">
+      <c r="AC21" t="n">
         <v>9.699999999999999</v>
       </c>
-      <c r="AC21" t="n">
+      <c r="AD21" t="n">
         <v>8.5</v>
       </c>
-      <c r="AD21" t="n">
+      <c r="AE21" t="n">
         <v>7.2</v>
       </c>
-      <c r="AE21" t="n">
+      <c r="AF21" t="n">
         <v>14.8</v>
       </c>
-      <c r="AF21" t="n">
+      <c r="AG21" t="n">
         <v>14.3</v>
       </c>
-      <c r="AG21" t="n">
+      <c r="AH21" t="n">
         <v>11.3</v>
       </c>
-      <c r="AH21" t="n">
+      <c r="AI21" t="n">
         <v>13</v>
       </c>
-      <c r="AI21" t="n">
+      <c r="AJ21" t="n">
         <v>18.1</v>
       </c>
-      <c r="AJ21" t="n">
+      <c r="AK21" t="n">
         <v>35.6</v>
       </c>
-      <c r="AK21" t="n">
+      <c r="AL21" t="n">
         <v>36.5</v>
       </c>
-      <c r="AL21" t="n">
+      <c r="AM21" t="n">
         <v>36.9</v>
       </c>
-      <c r="AM21" t="n">
+      <c r="AN21" t="n">
         <v>16.9</v>
       </c>
-      <c r="AN21" t="n">
+      <c r="AO21" t="n">
         <v>17.8</v>
       </c>
-      <c r="AO21" t="n">
+      <c r="AP21" t="n">
         <v>32.4</v>
       </c>
-      <c r="AP21" t="n">
+      <c r="AQ21" t="n">
         <v>63.3</v>
       </c>
-      <c r="AQ21" t="n">
+      <c r="AR21" t="n">
         <v>51</v>
       </c>
-      <c r="AR21" t="n">
+      <c r="AS21" t="n">
         <v>163.3</v>
       </c>
     </row>
@@ -3359,127 +3382,132 @@
           <t>TZ</t>
         </is>
       </c>
-      <c r="D22" t="n">
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>TZA</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
         <v>30.2</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>25.7</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>28.9</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22" t="n">
         <v>27.1</v>
       </c>
-      <c r="H22" t="n">
+      <c r="I22" t="n">
         <v>36.1</v>
       </c>
-      <c r="I22" t="n">
+      <c r="J22" t="n">
         <v>33.3</v>
       </c>
-      <c r="J22" t="n">
+      <c r="K22" t="n">
         <v>32.4</v>
       </c>
-      <c r="K22" t="n">
+      <c r="L22" t="n">
         <v>29.9</v>
       </c>
-      <c r="L22" t="n">
+      <c r="M22" t="n">
         <v>31.2</v>
       </c>
-      <c r="M22" t="n">
+      <c r="N22" t="n">
         <v>25.8</v>
       </c>
-      <c r="N22" t="n">
+      <c r="O22" t="n">
         <v>36.4</v>
       </c>
-      <c r="O22" t="n">
+      <c r="P22" t="n">
         <v>25.2</v>
       </c>
-      <c r="P22" t="n">
+      <c r="Q22" t="n">
         <v>20.7</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="R22" t="n">
         <v>26.1</v>
       </c>
-      <c r="R22" t="n">
+      <c r="S22" t="n">
         <v>37.9</v>
       </c>
-      <c r="S22" t="n">
+      <c r="T22" t="n">
         <v>26.8</v>
       </c>
-      <c r="T22" t="n">
+      <c r="U22" t="n">
         <v>21</v>
       </c>
-      <c r="U22" t="n">
+      <c r="V22" t="n">
         <v>16.1</v>
       </c>
-      <c r="V22" t="n">
+      <c r="W22" t="n">
         <v>12.8</v>
       </c>
-      <c r="W22" t="n">
+      <c r="X22" t="n">
         <v>7.9</v>
       </c>
-      <c r="X22" t="n">
+      <c r="Y22" t="n">
         <v>6</v>
       </c>
-      <c r="Y22" t="n">
+      <c r="Z22" t="n">
         <v>5.1</v>
       </c>
-      <c r="Z22" t="n">
+      <c r="AA22" t="n">
         <v>4.6</v>
       </c>
-      <c r="AA22" t="n">
+      <c r="AB22" t="n">
         <v>4.4</v>
       </c>
-      <c r="AB22" t="n">
+      <c r="AC22" t="n">
         <v>4.1</v>
       </c>
-      <c r="AC22" t="n">
+      <c r="AD22" t="n">
         <v>4.4</v>
       </c>
-      <c r="AD22" t="n">
+      <c r="AE22" t="n">
         <v>7.3</v>
       </c>
-      <c r="AE22" t="n">
+      <c r="AF22" t="n">
         <v>7</v>
       </c>
-      <c r="AF22" t="n">
+      <c r="AG22" t="n">
         <v>10.3</v>
       </c>
-      <c r="AG22" t="n">
+      <c r="AH22" t="n">
         <v>12.1</v>
       </c>
-      <c r="AH22" t="n">
+      <c r="AI22" t="n">
         <v>7.2</v>
       </c>
-      <c r="AI22" t="n">
+      <c r="AJ22" t="n">
         <v>12.7</v>
       </c>
-      <c r="AJ22" t="n">
+      <c r="AK22" t="n">
         <v>16</v>
       </c>
-      <c r="AK22" t="n">
+      <c r="AL22" t="n">
         <v>7.9</v>
       </c>
-      <c r="AL22" t="n">
+      <c r="AM22" t="n">
         <v>6.1</v>
       </c>
-      <c r="AM22" t="n">
+      <c r="AN22" t="n">
         <v>5.6</v>
       </c>
-      <c r="AN22" t="n">
+      <c r="AO22" t="n">
         <v>5.2</v>
       </c>
-      <c r="AO22" t="n">
+      <c r="AP22" t="n">
         <v>5.3</v>
       </c>
-      <c r="AP22" t="n">
+      <c r="AQ22" t="n">
         <v>3.5</v>
       </c>
-      <c r="AQ22" t="n">
+      <c r="AR22" t="n">
         <v>3.4</v>
       </c>
-      <c r="AR22" t="n">
+      <c r="AS22" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3499,127 +3527,132 @@
           <t>UG</t>
         </is>
       </c>
-      <c r="D23" t="n">
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
         <v>99.2</v>
-      </c>
-      <c r="E23" t="n">
-        <v>100</v>
       </c>
       <c r="F23" t="n">
         <v>100</v>
       </c>
       <c r="G23" t="n">
+        <v>100</v>
+      </c>
+      <c r="H23" t="n">
         <v>150</v>
       </c>
-      <c r="H23" t="n">
+      <c r="I23" t="n">
         <v>16.7</v>
       </c>
-      <c r="I23" t="n">
+      <c r="J23" t="n">
         <v>100</v>
       </c>
-      <c r="J23" t="n">
+      <c r="K23" t="n">
         <v>143.8</v>
       </c>
-      <c r="K23" t="n">
+      <c r="L23" t="n">
         <v>215.4</v>
       </c>
-      <c r="L23" t="n">
+      <c r="M23" t="n">
         <v>166.7</v>
       </c>
-      <c r="M23" t="n">
+      <c r="N23" t="n">
         <v>130.8</v>
       </c>
-      <c r="N23" t="n">
+      <c r="O23" t="n">
         <v>45.4</v>
       </c>
-      <c r="O23" t="n">
+      <c r="P23" t="n">
         <v>20.8</v>
       </c>
-      <c r="P23" t="n">
+      <c r="Q23" t="n">
         <v>42.2</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="R23" t="n">
         <v>30</v>
       </c>
-      <c r="R23" t="n">
+      <c r="S23" t="n">
         <v>5.8</v>
       </c>
-      <c r="S23" t="n">
+      <c r="T23" t="n">
         <v>6.8</v>
       </c>
-      <c r="T23" t="n">
+      <c r="U23" t="n">
         <v>7.5</v>
       </c>
-      <c r="U23" t="n">
+      <c r="V23" t="n">
         <v>7.7</v>
-      </c>
-      <c r="V23" t="n">
-        <v>5.8</v>
       </c>
       <c r="W23" t="n">
         <v>5.8</v>
       </c>
       <c r="X23" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="Y23" t="n">
         <v>3.4</v>
       </c>
-      <c r="Y23" t="n">
+      <c r="Z23" t="n">
         <v>1.9</v>
       </c>
-      <c r="Z23" t="n">
+      <c r="AA23" t="n">
         <v>-0.3</v>
       </c>
-      <c r="AA23" t="n">
+      <c r="AB23" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="AB23" t="n">
+      <c r="AC23" t="n">
         <v>3.7</v>
       </c>
-      <c r="AC23" t="n">
+      <c r="AD23" t="n">
         <v>8.6</v>
       </c>
-      <c r="AD23" t="n">
+      <c r="AE23" t="n">
         <v>7.2</v>
       </c>
-      <c r="AE23" t="n">
+      <c r="AF23" t="n">
         <v>6.1</v>
       </c>
-      <c r="AF23" t="n">
+      <c r="AG23" t="n">
         <v>12</v>
       </c>
-      <c r="AG23" t="n">
+      <c r="AH23" t="n">
         <v>13</v>
       </c>
-      <c r="AH23" t="n">
+      <c r="AI23" t="n">
         <v>3.7</v>
       </c>
-      <c r="AI23" t="n">
+      <c r="AJ23" t="n">
         <v>15</v>
       </c>
-      <c r="AJ23" t="n">
+      <c r="AK23" t="n">
         <v>12.7</v>
       </c>
-      <c r="AK23" t="n">
+      <c r="AL23" t="n">
         <v>4.9</v>
       </c>
-      <c r="AL23" t="n">
+      <c r="AM23" t="n">
         <v>3.1</v>
       </c>
-      <c r="AM23" t="n">
+      <c r="AN23" t="n">
         <v>5.4</v>
       </c>
-      <c r="AN23" t="n">
+      <c r="AO23" t="n">
         <v>5.5</v>
       </c>
-      <c r="AO23" t="n">
+      <c r="AP23" t="n">
         <v>5.6</v>
       </c>
-      <c r="AP23" t="n">
+      <c r="AQ23" t="n">
         <v>2.6</v>
       </c>
-      <c r="AQ23" t="n">
+      <c r="AR23" t="n">
         <v>2.9</v>
       </c>
-      <c r="AR23" t="n">
+      <c r="AS23" t="n">
         <v>3.8</v>
       </c>
     </row>
@@ -3639,127 +3672,132 @@
           <t>DZ</t>
         </is>
       </c>
-      <c r="D24" t="n">
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>DZA</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
         <v>9.699999999999999</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>14.6</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>6.6</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24" t="n">
         <v>7.8</v>
       </c>
-      <c r="H24" t="n">
+      <c r="I24" t="n">
         <v>6.3</v>
       </c>
-      <c r="I24" t="n">
+      <c r="J24" t="n">
         <v>10.4</v>
       </c>
-      <c r="J24" t="n">
+      <c r="K24" t="n">
         <v>14</v>
-      </c>
-      <c r="K24" t="n">
-        <v>5.9</v>
       </c>
       <c r="L24" t="n">
         <v>5.9</v>
       </c>
       <c r="M24" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="N24" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="N24" t="n">
+      <c r="O24" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="O24" t="n">
+      <c r="P24" t="n">
         <v>25.9</v>
       </c>
-      <c r="P24" t="n">
+      <c r="Q24" t="n">
         <v>31.7</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="R24" t="n">
         <v>20.5</v>
       </c>
-      <c r="R24" t="n">
+      <c r="S24" t="n">
         <v>29</v>
       </c>
-      <c r="S24" t="n">
+      <c r="T24" t="n">
         <v>29.8</v>
       </c>
-      <c r="T24" t="n">
+      <c r="U24" t="n">
         <v>18.7</v>
       </c>
-      <c r="U24" t="n">
+      <c r="V24" t="n">
         <v>5.7</v>
       </c>
-      <c r="V24" t="n">
+      <c r="W24" t="n">
         <v>5</v>
       </c>
-      <c r="W24" t="n">
+      <c r="X24" t="n">
         <v>2.6</v>
       </c>
-      <c r="X24" t="n">
+      <c r="Y24" t="n">
         <v>0.3</v>
       </c>
-      <c r="Y24" t="n">
+      <c r="Z24" t="n">
         <v>4.2</v>
       </c>
-      <c r="Z24" t="n">
+      <c r="AA24" t="n">
         <v>1.4</v>
       </c>
-      <c r="AA24" t="n">
+      <c r="AB24" t="n">
         <v>4.3</v>
       </c>
-      <c r="AB24" t="n">
+      <c r="AC24" t="n">
         <v>4</v>
       </c>
-      <c r="AC24" t="n">
+      <c r="AD24" t="n">
         <v>1.4</v>
       </c>
-      <c r="AD24" t="n">
+      <c r="AE24" t="n">
         <v>2.3</v>
       </c>
-      <c r="AE24" t="n">
+      <c r="AF24" t="n">
         <v>3.7</v>
       </c>
-      <c r="AF24" t="n">
+      <c r="AG24" t="n">
         <v>4.9</v>
       </c>
-      <c r="AG24" t="n">
+      <c r="AH24" t="n">
         <v>5.7</v>
       </c>
-      <c r="AH24" t="n">
+      <c r="AI24" t="n">
         <v>3.9</v>
       </c>
-      <c r="AI24" t="n">
+      <c r="AJ24" t="n">
         <v>4.5</v>
       </c>
-      <c r="AJ24" t="n">
+      <c r="AK24" t="n">
         <v>8.9</v>
       </c>
-      <c r="AK24" t="n">
+      <c r="AL24" t="n">
         <v>3.3</v>
       </c>
-      <c r="AL24" t="n">
+      <c r="AM24" t="n">
         <v>2.9</v>
       </c>
-      <c r="AM24" t="n">
+      <c r="AN24" t="n">
         <v>4.8</v>
       </c>
-      <c r="AN24" t="n">
+      <c r="AO24" t="n">
         <v>6.4</v>
       </c>
-      <c r="AO24" t="n">
+      <c r="AP24" t="n">
         <v>5.6</v>
       </c>
-      <c r="AP24" t="n">
+      <c r="AQ24" t="n">
         <v>4.3</v>
       </c>
-      <c r="AQ24" t="n">
+      <c r="AR24" t="n">
         <v>2</v>
       </c>
-      <c r="AR24" t="n">
+      <c r="AS24" t="n">
         <v>2.4</v>
       </c>
     </row>
@@ -3779,127 +3817,132 @@
           <t>EG</t>
         </is>
       </c>
-      <c r="D25" t="n">
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>EGY</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
         <v>20.5</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>10.4</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
         <v>14.9</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25" t="n">
         <v>16</v>
       </c>
-      <c r="H25" t="n">
+      <c r="I25" t="n">
         <v>17.1</v>
       </c>
-      <c r="I25" t="n">
+      <c r="J25" t="n">
         <v>12.1</v>
       </c>
-      <c r="J25" t="n">
+      <c r="K25" t="n">
         <v>23.9</v>
       </c>
-      <c r="K25" t="n">
+      <c r="L25" t="n">
         <v>25.2</v>
       </c>
-      <c r="L25" t="n">
+      <c r="M25" t="n">
         <v>15.2</v>
       </c>
-      <c r="M25" t="n">
+      <c r="N25" t="n">
         <v>20.1</v>
       </c>
-      <c r="N25" t="n">
+      <c r="O25" t="n">
         <v>21.2</v>
       </c>
-      <c r="O25" t="n">
+      <c r="P25" t="n">
         <v>14.7</v>
       </c>
-      <c r="P25" t="n">
+      <c r="Q25" t="n">
         <v>21.1</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="R25" t="n">
         <v>11</v>
       </c>
-      <c r="R25" t="n">
+      <c r="S25" t="n">
         <v>9</v>
       </c>
-      <c r="S25" t="n">
+      <c r="T25" t="n">
         <v>9.4</v>
       </c>
-      <c r="T25" t="n">
+      <c r="U25" t="n">
         <v>7.1</v>
       </c>
-      <c r="U25" t="n">
+      <c r="V25" t="n">
         <v>6.2</v>
       </c>
-      <c r="V25" t="n">
+      <c r="W25" t="n">
         <v>5</v>
       </c>
-      <c r="W25" t="n">
+      <c r="X25" t="n">
         <v>3.7</v>
       </c>
-      <c r="X25" t="n">
+      <c r="Y25" t="n">
         <v>2.8</v>
       </c>
-      <c r="Y25" t="n">
+      <c r="Z25" t="n">
         <v>2.4</v>
       </c>
-      <c r="Z25" t="n">
+      <c r="AA25" t="n">
         <v>2.3</v>
       </c>
-      <c r="AA25" t="n">
+      <c r="AB25" t="n">
         <v>3.4</v>
       </c>
-      <c r="AB25" t="n">
+      <c r="AC25" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="AC25" t="n">
+      <c r="AD25" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="AD25" t="n">
+      <c r="AE25" t="n">
         <v>4.3</v>
       </c>
-      <c r="AE25" t="n">
+      <c r="AF25" t="n">
         <v>10.9</v>
       </c>
-      <c r="AF25" t="n">
+      <c r="AG25" t="n">
         <v>11.7</v>
       </c>
-      <c r="AG25" t="n">
+      <c r="AH25" t="n">
         <v>16.2</v>
       </c>
-      <c r="AH25" t="n">
+      <c r="AI25" t="n">
         <v>11.7</v>
       </c>
-      <c r="AI25" t="n">
+      <c r="AJ25" t="n">
         <v>11.1</v>
       </c>
-      <c r="AJ25" t="n">
+      <c r="AK25" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="AK25" t="n">
+      <c r="AL25" t="n">
         <v>6.9</v>
       </c>
-      <c r="AL25" t="n">
+      <c r="AM25" t="n">
         <v>10.1</v>
       </c>
-      <c r="AM25" t="n">
+      <c r="AN25" t="n">
         <v>11</v>
       </c>
-      <c r="AN25" t="n">
+      <c r="AO25" t="n">
         <v>10.2</v>
       </c>
-      <c r="AO25" t="n">
+      <c r="AP25" t="n">
         <v>23.5</v>
       </c>
-      <c r="AP25" t="n">
+      <c r="AQ25" t="n">
         <v>20.9</v>
       </c>
-      <c r="AQ25" t="n">
+      <c r="AR25" t="n">
         <v>13.9</v>
       </c>
-      <c r="AR25" t="n">
+      <c r="AS25" t="n">
         <v>5.7</v>
       </c>
     </row>
@@ -3919,127 +3962,132 @@
           <t>LY</t>
         </is>
       </c>
-      <c r="D26" t="n">
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
         <v>14.3</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>13.2</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>13.8</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26" t="n">
         <v>10.5</v>
       </c>
-      <c r="H26" t="n">
+      <c r="I26" t="n">
         <v>12.4</v>
       </c>
-      <c r="I26" t="n">
+      <c r="J26" t="n">
         <v>9.1</v>
       </c>
-      <c r="J26" t="n">
+      <c r="K26" t="n">
         <v>3.4</v>
       </c>
-      <c r="K26" t="n">
+      <c r="L26" t="n">
         <v>4.4</v>
       </c>
-      <c r="L26" t="n">
+      <c r="M26" t="n">
         <v>3.1</v>
       </c>
-      <c r="M26" t="n">
+      <c r="N26" t="n">
         <v>4.5</v>
       </c>
-      <c r="N26" t="n">
+      <c r="O26" t="n">
         <v>0.7</v>
       </c>
-      <c r="O26" t="n">
+      <c r="P26" t="n">
         <v>11.7</v>
       </c>
-      <c r="P26" t="n">
+      <c r="Q26" t="n">
         <v>9.4</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="R26" t="n">
         <v>7.5</v>
       </c>
-      <c r="R26" t="n">
+      <c r="S26" t="n">
         <v>10.7</v>
       </c>
-      <c r="S26" t="n">
+      <c r="T26" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="T26" t="n">
+      <c r="U26" t="n">
         <v>4</v>
       </c>
-      <c r="U26" t="n">
+      <c r="V26" t="n">
         <v>3.6</v>
       </c>
-      <c r="V26" t="n">
+      <c r="W26" t="n">
         <v>3.7</v>
       </c>
-      <c r="W26" t="n">
+      <c r="X26" t="n">
         <v>2.6</v>
       </c>
-      <c r="X26" t="n">
+      <c r="Y26" t="n">
         <v>-2.9</v>
       </c>
-      <c r="Y26" t="n">
+      <c r="Z26" t="n">
         <v>-8.800000000000001</v>
       </c>
-      <c r="Z26" t="n">
+      <c r="AA26" t="n">
         <v>-9.9</v>
       </c>
-      <c r="AA26" t="n">
+      <c r="AB26" t="n">
         <v>-2.1</v>
       </c>
-      <c r="AB26" t="n">
+      <c r="AC26" t="n">
         <v>1.3</v>
       </c>
-      <c r="AC26" t="n">
+      <c r="AD26" t="n">
         <v>2.7</v>
       </c>
-      <c r="AD26" t="n">
+      <c r="AE26" t="n">
         <v>1.5</v>
       </c>
-      <c r="AE26" t="n">
+      <c r="AF26" t="n">
         <v>6.2</v>
       </c>
-      <c r="AF26" t="n">
+      <c r="AG26" t="n">
         <v>10.4</v>
       </c>
-      <c r="AG26" t="n">
+      <c r="AH26" t="n">
         <v>2.4</v>
       </c>
-      <c r="AH26" t="n">
+      <c r="AI26" t="n">
         <v>2.5</v>
       </c>
-      <c r="AI26" t="n">
+      <c r="AJ26" t="n">
         <v>15.9</v>
       </c>
-      <c r="AJ26" t="n">
+      <c r="AK26" t="n">
         <v>6.1</v>
       </c>
-      <c r="AK26" t="n">
+      <c r="AL26" t="n">
         <v>2.6</v>
       </c>
-      <c r="AL26" t="n">
+      <c r="AM26" t="n">
         <v>2.4</v>
       </c>
-      <c r="AM26" t="n">
+      <c r="AN26" t="n">
         <v>14.8</v>
       </c>
-      <c r="AN26" t="n">
+      <c r="AO26" t="n">
         <v>24</v>
       </c>
-      <c r="AO26" t="n">
+      <c r="AP26" t="n">
         <v>28</v>
       </c>
-      <c r="AP26" t="n">
+      <c r="AQ26" t="n">
         <v>-1.2</v>
       </c>
-      <c r="AQ26" t="n">
+      <c r="AR26" t="n">
         <v>4.6</v>
       </c>
-      <c r="AR26" t="n">
+      <c r="AS26" t="n">
         <v>22.3</v>
       </c>
     </row>
@@ -4059,7 +4107,11 @@
           <t>MR</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>MRT</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
@@ -4070,94 +4122,95 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
-      <c r="O27" t="n">
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="n">
         <v>5.6</v>
       </c>
-      <c r="P27" t="n">
+      <c r="Q27" t="n">
         <v>10.1</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="R27" t="n">
         <v>9.4</v>
       </c>
-      <c r="R27" t="n">
+      <c r="S27" t="n">
         <v>4.1</v>
       </c>
-      <c r="S27" t="n">
+      <c r="T27" t="n">
         <v>6.5</v>
       </c>
-      <c r="T27" t="n">
+      <c r="U27" t="n">
         <v>4.7</v>
       </c>
-      <c r="U27" t="n">
+      <c r="V27" t="n">
         <v>4.6</v>
       </c>
-      <c r="V27" t="n">
+      <c r="W27" t="n">
         <v>8</v>
       </c>
-      <c r="W27" t="n">
+      <c r="X27" t="n">
         <v>4.1</v>
       </c>
-      <c r="X27" t="n">
+      <c r="Y27" t="n">
         <v>3.3</v>
       </c>
-      <c r="Y27" t="n">
+      <c r="Z27" t="n">
         <v>4.7</v>
       </c>
-      <c r="Z27" t="n">
+      <c r="AA27" t="n">
         <v>3.9</v>
       </c>
-      <c r="AA27" t="n">
+      <c r="AB27" t="n">
         <v>5.2</v>
       </c>
-      <c r="AB27" t="n">
+      <c r="AC27" t="n">
         <v>10.4</v>
       </c>
-      <c r="AC27" t="n">
+      <c r="AD27" t="n">
         <v>12.1</v>
       </c>
-      <c r="AD27" t="n">
+      <c r="AE27" t="n">
         <v>6.2</v>
       </c>
-      <c r="AE27" t="n">
+      <c r="AF27" t="n">
         <v>7.3</v>
       </c>
-      <c r="AF27" t="n">
+      <c r="AG27" t="n">
         <v>7.5</v>
       </c>
-      <c r="AG27" t="n">
+      <c r="AH27" t="n">
         <v>2.1</v>
       </c>
-      <c r="AH27" t="n">
+      <c r="AI27" t="n">
         <v>6.3</v>
       </c>
-      <c r="AI27" t="n">
+      <c r="AJ27" t="n">
         <v>5.7</v>
       </c>
-      <c r="AJ27" t="n">
+      <c r="AK27" t="n">
         <v>4.9</v>
       </c>
-      <c r="AK27" t="n">
+      <c r="AL27" t="n">
         <v>4.1</v>
       </c>
-      <c r="AL27" t="n">
+      <c r="AM27" t="n">
         <v>3.8</v>
       </c>
-      <c r="AM27" t="n">
+      <c r="AN27" t="n">
         <v>0.5</v>
       </c>
-      <c r="AN27" t="n">
+      <c r="AO27" t="n">
         <v>1.5</v>
       </c>
-      <c r="AO27" t="n">
+      <c r="AP27" t="n">
         <v>2.3</v>
       </c>
-      <c r="AP27" t="n">
+      <c r="AQ27" t="n">
         <v>3.1</v>
       </c>
-      <c r="AQ27" t="n">
+      <c r="AR27" t="n">
         <v>2.3</v>
       </c>
-      <c r="AR27" t="n">
+      <c r="AS27" t="n">
         <v>2.3</v>
       </c>
     </row>
@@ -4177,127 +4230,132 @@
           <t>MA</t>
         </is>
       </c>
-      <c r="D28" t="n">
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>MAR</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
         <v>9.4</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
         <v>12.5</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
         <v>10.5</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28" t="n">
         <v>6.2</v>
       </c>
-      <c r="H28" t="n">
+      <c r="I28" t="n">
         <v>12.4</v>
       </c>
-      <c r="I28" t="n">
+      <c r="J28" t="n">
         <v>7.7</v>
       </c>
-      <c r="J28" t="n">
+      <c r="K28" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="K28" t="n">
+      <c r="L28" t="n">
         <v>2.7</v>
       </c>
-      <c r="L28" t="n">
+      <c r="M28" t="n">
         <v>2.4</v>
       </c>
-      <c r="M28" t="n">
+      <c r="N28" t="n">
         <v>3.1</v>
       </c>
-      <c r="N28" t="n">
+      <c r="O28" t="n">
         <v>6</v>
       </c>
-      <c r="O28" t="n">
+      <c r="P28" t="n">
         <v>9</v>
       </c>
-      <c r="P28" t="n">
+      <c r="Q28" t="n">
         <v>5.7</v>
       </c>
-      <c r="Q28" t="n">
+      <c r="R28" t="n">
         <v>5.2</v>
       </c>
-      <c r="R28" t="n">
+      <c r="S28" t="n">
         <v>5.1</v>
       </c>
-      <c r="S28" t="n">
+      <c r="T28" t="n">
         <v>6.1</v>
       </c>
-      <c r="T28" t="n">
+      <c r="U28" t="n">
         <v>3</v>
       </c>
-      <c r="U28" t="n">
+      <c r="V28" t="n">
         <v>1</v>
       </c>
-      <c r="V28" t="n">
+      <c r="W28" t="n">
         <v>2.7</v>
       </c>
-      <c r="W28" t="n">
+      <c r="X28" t="n">
         <v>0.7</v>
       </c>
-      <c r="X28" t="n">
+      <c r="Y28" t="n">
         <v>1.9</v>
       </c>
-      <c r="Y28" t="n">
+      <c r="Z28" t="n">
         <v>0.6</v>
       </c>
-      <c r="Z28" t="n">
+      <c r="AA28" t="n">
         <v>2.8</v>
       </c>
-      <c r="AA28" t="n">
+      <c r="AB28" t="n">
         <v>1.2</v>
       </c>
-      <c r="AB28" t="n">
+      <c r="AC28" t="n">
         <v>1.5</v>
       </c>
-      <c r="AC28" t="n">
+      <c r="AD28" t="n">
         <v>1</v>
       </c>
-      <c r="AD28" t="n">
+      <c r="AE28" t="n">
         <v>3.3</v>
       </c>
-      <c r="AE28" t="n">
+      <c r="AF28" t="n">
         <v>2</v>
       </c>
-      <c r="AF28" t="n">
+      <c r="AG28" t="n">
         <v>3.9</v>
       </c>
-      <c r="AG28" t="n">
+      <c r="AH28" t="n">
         <v>2.6</v>
       </c>
-      <c r="AH28" t="n">
+      <c r="AI28" t="n">
         <v>0.9</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>0.7</v>
       </c>
       <c r="AJ28" t="n">
         <v>0.7</v>
       </c>
       <c r="AK28" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AL28" t="n">
         <v>1.6</v>
       </c>
-      <c r="AL28" t="n">
+      <c r="AM28" t="n">
         <v>0.4</v>
       </c>
-      <c r="AM28" t="n">
+      <c r="AN28" t="n">
         <v>1.4</v>
       </c>
-      <c r="AN28" t="n">
+      <c r="AO28" t="n">
         <v>1.5</v>
       </c>
-      <c r="AO28" t="n">
+      <c r="AP28" t="n">
         <v>0.7</v>
       </c>
-      <c r="AP28" t="n">
+      <c r="AQ28" t="n">
         <v>1.6</v>
       </c>
-      <c r="AQ28" t="n">
+      <c r="AR28" t="n">
         <v>0.2</v>
       </c>
-      <c r="AR28" t="n">
+      <c r="AS28" t="n">
         <v>0.6</v>
       </c>
     </row>
@@ -4317,127 +4375,132 @@
           <t>TN</t>
         </is>
       </c>
-      <c r="D29" t="n">
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
         <v>10</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>8.9</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>13.7</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29" t="n">
         <v>9</v>
       </c>
-      <c r="H29" t="n">
+      <c r="I29" t="n">
         <v>8.6</v>
       </c>
-      <c r="I29" t="n">
+      <c r="J29" t="n">
         <v>7.6</v>
       </c>
-      <c r="J29" t="n">
+      <c r="K29" t="n">
         <v>6.2</v>
       </c>
-      <c r="K29" t="n">
+      <c r="L29" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="L29" t="n">
+      <c r="M29" t="n">
         <v>7.2</v>
       </c>
-      <c r="M29" t="n">
+      <c r="N29" t="n">
         <v>7.7</v>
       </c>
-      <c r="N29" t="n">
+      <c r="O29" t="n">
         <v>6.5</v>
       </c>
-      <c r="O29" t="n">
+      <c r="P29" t="n">
         <v>7.7</v>
       </c>
-      <c r="P29" t="n">
+      <c r="Q29" t="n">
         <v>5.5</v>
       </c>
-      <c r="Q29" t="n">
+      <c r="R29" t="n">
         <v>4</v>
       </c>
-      <c r="R29" t="n">
+      <c r="S29" t="n">
         <v>5.4</v>
       </c>
-      <c r="S29" t="n">
+      <c r="T29" t="n">
         <v>6.2</v>
       </c>
-      <c r="T29" t="n">
+      <c r="U29" t="n">
         <v>3.7</v>
       </c>
-      <c r="U29" t="n">
+      <c r="V29" t="n">
         <v>3.6</v>
       </c>
-      <c r="V29" t="n">
+      <c r="W29" t="n">
         <v>3.1</v>
-      </c>
-      <c r="W29" t="n">
-        <v>2.8</v>
       </c>
       <c r="X29" t="n">
         <v>2.8</v>
       </c>
       <c r="Y29" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z29" t="n">
         <v>1.9</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>2.7</v>
       </c>
       <c r="AA29" t="n">
         <v>2.7</v>
       </c>
       <c r="AB29" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AC29" t="n">
         <v>3.7</v>
       </c>
-      <c r="AC29" t="n">
+      <c r="AD29" t="n">
         <v>2</v>
       </c>
-      <c r="AD29" t="n">
+      <c r="AE29" t="n">
         <v>4.1</v>
       </c>
-      <c r="AE29" t="n">
+      <c r="AF29" t="n">
         <v>3.4</v>
       </c>
-      <c r="AF29" t="n">
+      <c r="AG29" t="n">
         <v>4.9</v>
       </c>
-      <c r="AG29" t="n">
+      <c r="AH29" t="n">
         <v>3.5</v>
       </c>
-      <c r="AH29" t="n">
+      <c r="AI29" t="n">
         <v>4.4</v>
       </c>
-      <c r="AI29" t="n">
+      <c r="AJ29" t="n">
         <v>3.2</v>
       </c>
-      <c r="AJ29" t="n">
+      <c r="AK29" t="n">
         <v>4.6</v>
       </c>
-      <c r="AK29" t="n">
+      <c r="AL29" t="n">
         <v>5.3</v>
       </c>
-      <c r="AL29" t="n">
+      <c r="AM29" t="n">
         <v>4.6</v>
       </c>
-      <c r="AM29" t="n">
+      <c r="AN29" t="n">
         <v>4.4</v>
       </c>
-      <c r="AN29" t="n">
+      <c r="AO29" t="n">
         <v>3.6</v>
       </c>
-      <c r="AO29" t="n">
+      <c r="AP29" t="n">
         <v>5.3</v>
       </c>
-      <c r="AP29" t="n">
+      <c r="AQ29" t="n">
         <v>7.3</v>
       </c>
-      <c r="AQ29" t="n">
+      <c r="AR29" t="n">
         <v>6.7</v>
       </c>
-      <c r="AR29" t="n">
+      <c r="AS29" t="n">
         <v>5.7</v>
       </c>
     </row>
@@ -4457,14 +4520,16 @@
           <t>AO</t>
         </is>
       </c>
-      <c r="D30" t="n">
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>AGO</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
         <v>46.7</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>1.4</v>
-      </c>
-      <c r="F30" t="n">
-        <v>1.8</v>
       </c>
       <c r="G30" t="n">
         <v>1.8</v>
@@ -4491,93 +4556,96 @@
         <v>1.8</v>
       </c>
       <c r="O30" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="P30" t="n">
         <v>85.3</v>
       </c>
-      <c r="P30" t="n">
+      <c r="Q30" t="n">
         <v>299.1</v>
       </c>
-      <c r="Q30" t="n">
+      <c r="R30" t="n">
         <v>1379.5</v>
       </c>
-      <c r="R30" t="n">
+      <c r="S30" t="n">
         <v>949.8</v>
       </c>
-      <c r="S30" t="n">
+      <c r="T30" t="n">
         <v>2672.2</v>
       </c>
-      <c r="T30" t="n">
+      <c r="U30" t="n">
         <v>4146</v>
       </c>
-      <c r="U30" t="n">
+      <c r="V30" t="n">
         <v>221.5</v>
       </c>
-      <c r="V30" t="n">
+      <c r="W30" t="n">
         <v>107.4</v>
       </c>
-      <c r="W30" t="n">
+      <c r="X30" t="n">
         <v>248.2</v>
       </c>
-      <c r="X30" t="n">
+      <c r="Y30" t="n">
         <v>325</v>
       </c>
-      <c r="Y30" t="n">
+      <c r="Z30" t="n">
         <v>152.6</v>
       </c>
-      <c r="Z30" t="n">
+      <c r="AA30" t="n">
         <v>108.9</v>
       </c>
-      <c r="AA30" t="n">
+      <c r="AB30" t="n">
         <v>98.2</v>
       </c>
-      <c r="AB30" t="n">
+      <c r="AC30" t="n">
         <v>43.5</v>
       </c>
-      <c r="AC30" t="n">
+      <c r="AD30" t="n">
         <v>23</v>
       </c>
-      <c r="AD30" t="n">
+      <c r="AE30" t="n">
         <v>13.3</v>
       </c>
-      <c r="AE30" t="n">
+      <c r="AF30" t="n">
         <v>12.2</v>
       </c>
-      <c r="AF30" t="n">
+      <c r="AG30" t="n">
         <v>12.5</v>
       </c>
-      <c r="AG30" t="n">
+      <c r="AH30" t="n">
         <v>13.7</v>
       </c>
-      <c r="AH30" t="n">
+      <c r="AI30" t="n">
         <v>14.5</v>
       </c>
-      <c r="AI30" t="n">
+      <c r="AJ30" t="n">
         <v>13.5</v>
       </c>
-      <c r="AJ30" t="n">
+      <c r="AK30" t="n">
         <v>10.3</v>
       </c>
-      <c r="AK30" t="n">
+      <c r="AL30" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="AL30" t="n">
+      <c r="AM30" t="n">
         <v>7.3</v>
       </c>
-      <c r="AM30" t="n">
+      <c r="AN30" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="AN30" t="n">
+      <c r="AO30" t="n">
         <v>30.7</v>
       </c>
-      <c r="AO30" t="n">
+      <c r="AP30" t="n">
         <v>29.8</v>
       </c>
-      <c r="AP30" t="n">
+      <c r="AQ30" t="n">
         <v>19.6</v>
       </c>
-      <c r="AQ30" t="n">
+      <c r="AR30" t="n">
         <v>17.1</v>
       </c>
-      <c r="AR30" t="n">
+      <c r="AS30" t="n">
         <v>22.3</v>
       </c>
     </row>
@@ -4597,127 +4665,132 @@
           <t>BW</t>
         </is>
       </c>
-      <c r="D31" t="n">
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
         <v>12.1</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
         <v>16.3</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>11.2</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31" t="n">
         <v>10.5</v>
       </c>
-      <c r="H31" t="n">
+      <c r="I31" t="n">
         <v>8.6</v>
       </c>
-      <c r="I31" t="n">
+      <c r="J31" t="n">
         <v>8.1</v>
       </c>
-      <c r="J31" t="n">
+      <c r="K31" t="n">
         <v>10</v>
       </c>
-      <c r="K31" t="n">
+      <c r="L31" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="L31" t="n">
+      <c r="M31" t="n">
         <v>8.4</v>
       </c>
-      <c r="M31" t="n">
+      <c r="N31" t="n">
         <v>11.6</v>
       </c>
-      <c r="N31" t="n">
+      <c r="O31" t="n">
         <v>11.4</v>
       </c>
-      <c r="O31" t="n">
+      <c r="P31" t="n">
         <v>12.6</v>
       </c>
-      <c r="P31" t="n">
+      <c r="Q31" t="n">
         <v>16.5</v>
       </c>
-      <c r="Q31" t="n">
+      <c r="R31" t="n">
         <v>14.4</v>
       </c>
-      <c r="R31" t="n">
+      <c r="S31" t="n">
         <v>10.6</v>
       </c>
-      <c r="S31" t="n">
+      <c r="T31" t="n">
         <v>10.5</v>
       </c>
-      <c r="T31" t="n">
+      <c r="U31" t="n">
         <v>10.1</v>
       </c>
-      <c r="U31" t="n">
+      <c r="V31" t="n">
         <v>8.9</v>
       </c>
-      <c r="V31" t="n">
+      <c r="W31" t="n">
         <v>6.5</v>
       </c>
-      <c r="W31" t="n">
+      <c r="X31" t="n">
         <v>7.8</v>
       </c>
-      <c r="X31" t="n">
+      <c r="Y31" t="n">
         <v>8.5</v>
       </c>
-      <c r="Y31" t="n">
+      <c r="Z31" t="n">
         <v>6.6</v>
       </c>
-      <c r="Z31" t="n">
+      <c r="AA31" t="n">
         <v>8</v>
       </c>
-      <c r="AA31" t="n">
+      <c r="AB31" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="AB31" t="n">
+      <c r="AC31" t="n">
         <v>7</v>
       </c>
-      <c r="AC31" t="n">
+      <c r="AD31" t="n">
         <v>8.6</v>
       </c>
-      <c r="AD31" t="n">
+      <c r="AE31" t="n">
         <v>11.6</v>
       </c>
-      <c r="AE31" t="n">
+      <c r="AF31" t="n">
         <v>7.1</v>
       </c>
-      <c r="AF31" t="n">
+      <c r="AG31" t="n">
         <v>12.6</v>
       </c>
-      <c r="AG31" t="n">
+      <c r="AH31" t="n">
         <v>8.1</v>
       </c>
-      <c r="AH31" t="n">
+      <c r="AI31" t="n">
         <v>6.9</v>
       </c>
-      <c r="AI31" t="n">
+      <c r="AJ31" t="n">
         <v>8.5</v>
       </c>
-      <c r="AJ31" t="n">
+      <c r="AK31" t="n">
         <v>7.5</v>
       </c>
-      <c r="AK31" t="n">
+      <c r="AL31" t="n">
         <v>5.9</v>
       </c>
-      <c r="AL31" t="n">
+      <c r="AM31" t="n">
         <v>4.4</v>
       </c>
-      <c r="AM31" t="n">
+      <c r="AN31" t="n">
         <v>3.1</v>
       </c>
-      <c r="AN31" t="n">
+      <c r="AO31" t="n">
         <v>2.8</v>
       </c>
-      <c r="AO31" t="n">
+      <c r="AP31" t="n">
         <v>3.3</v>
       </c>
-      <c r="AP31" t="n">
+      <c r="AQ31" t="n">
         <v>3.2</v>
       </c>
-      <c r="AQ31" t="n">
+      <c r="AR31" t="n">
         <v>2.8</v>
       </c>
-      <c r="AR31" t="n">
+      <c r="AS31" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4737,127 +4810,132 @@
           <t>SZ</t>
         </is>
       </c>
-      <c r="D32" t="n">
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>SWZ</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
         <v>18.2</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>20.1</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="n">
         <v>10.8</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32" t="n">
         <v>11.6</v>
       </c>
-      <c r="H32" t="n">
+      <c r="I32" t="n">
         <v>12.9</v>
       </c>
-      <c r="I32" t="n">
+      <c r="J32" t="n">
         <v>20.5</v>
       </c>
-      <c r="J32" t="n">
+      <c r="K32" t="n">
         <v>13.7</v>
       </c>
-      <c r="K32" t="n">
+      <c r="L32" t="n">
         <v>13.4</v>
       </c>
-      <c r="L32" t="n">
+      <c r="M32" t="n">
         <v>20.4</v>
       </c>
-      <c r="M32" t="n">
+      <c r="N32" t="n">
         <v>7.5</v>
       </c>
-      <c r="N32" t="n">
+      <c r="O32" t="n">
         <v>13.1</v>
       </c>
-      <c r="O32" t="n">
+      <c r="P32" t="n">
         <v>8.9</v>
       </c>
-      <c r="P32" t="n">
+      <c r="Q32" t="n">
         <v>7.6</v>
       </c>
-      <c r="Q32" t="n">
+      <c r="R32" t="n">
         <v>12</v>
       </c>
-      <c r="R32" t="n">
+      <c r="S32" t="n">
         <v>13.8</v>
       </c>
-      <c r="S32" t="n">
+      <c r="T32" t="n">
         <v>12.3</v>
       </c>
-      <c r="T32" t="n">
+      <c r="U32" t="n">
         <v>6.4</v>
       </c>
-      <c r="U32" t="n">
+      <c r="V32" t="n">
         <v>7.9</v>
       </c>
-      <c r="V32" t="n">
+      <c r="W32" t="n">
         <v>7.5</v>
       </c>
-      <c r="W32" t="n">
+      <c r="X32" t="n">
         <v>5.9</v>
       </c>
-      <c r="X32" t="n">
+      <c r="Y32" t="n">
         <v>9.9</v>
       </c>
-      <c r="Y32" t="n">
+      <c r="Z32" t="n">
         <v>7.5</v>
       </c>
-      <c r="Z32" t="n">
+      <c r="AA32" t="n">
         <v>11.9</v>
       </c>
-      <c r="AA32" t="n">
+      <c r="AB32" t="n">
         <v>7.3</v>
       </c>
-      <c r="AB32" t="n">
+      <c r="AC32" t="n">
         <v>3.5</v>
       </c>
-      <c r="AC32" t="n">
+      <c r="AD32" t="n">
         <v>4.9</v>
       </c>
-      <c r="AD32" t="n">
+      <c r="AE32" t="n">
         <v>5.2</v>
       </c>
-      <c r="AE32" t="n">
+      <c r="AF32" t="n">
         <v>8.1</v>
       </c>
-      <c r="AF32" t="n">
+      <c r="AG32" t="n">
         <v>12.7</v>
       </c>
-      <c r="AG32" t="n">
+      <c r="AH32" t="n">
         <v>7.4</v>
       </c>
-      <c r="AH32" t="n">
+      <c r="AI32" t="n">
         <v>4.5</v>
       </c>
-      <c r="AI32" t="n">
+      <c r="AJ32" t="n">
         <v>6.1</v>
       </c>
-      <c r="AJ32" t="n">
+      <c r="AK32" t="n">
         <v>8.9</v>
       </c>
-      <c r="AK32" t="n">
+      <c r="AL32" t="n">
         <v>5.6</v>
       </c>
-      <c r="AL32" t="n">
+      <c r="AM32" t="n">
         <v>5.7</v>
       </c>
-      <c r="AM32" t="n">
+      <c r="AN32" t="n">
         <v>5</v>
       </c>
-      <c r="AN32" t="n">
+      <c r="AO32" t="n">
         <v>7.8</v>
       </c>
-      <c r="AO32" t="n">
+      <c r="AP32" t="n">
         <v>6.2</v>
       </c>
-      <c r="AP32" t="n">
+      <c r="AQ32" t="n">
         <v>4.8</v>
       </c>
-      <c r="AQ32" t="n">
+      <c r="AR32" t="n">
         <v>2.6</v>
       </c>
-      <c r="AR32" t="n">
+      <c r="AS32" t="n">
         <v>3.9</v>
       </c>
     </row>
@@ -4877,127 +4955,132 @@
           <t>LS</t>
         </is>
       </c>
-      <c r="D33" t="n">
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>LSO</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
         <v>19.6</v>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
         <v>12.2</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33" t="n">
         <v>12.4</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33" t="n">
         <v>17.5</v>
       </c>
-      <c r="H33" t="n">
+      <c r="I33" t="n">
         <v>10.8</v>
       </c>
-      <c r="I33" t="n">
+      <c r="J33" t="n">
         <v>13.2</v>
       </c>
-      <c r="J33" t="n">
+      <c r="K33" t="n">
         <v>18.2</v>
-      </c>
-      <c r="K33" t="n">
-        <v>11.6</v>
       </c>
       <c r="L33" t="n">
         <v>11.6</v>
       </c>
       <c r="M33" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="N33" t="n">
         <v>14.8</v>
       </c>
-      <c r="N33" t="n">
+      <c r="O33" t="n">
         <v>11.5</v>
       </c>
-      <c r="O33" t="n">
+      <c r="P33" t="n">
         <v>17.9</v>
       </c>
-      <c r="P33" t="n">
+      <c r="Q33" t="n">
         <v>17</v>
       </c>
-      <c r="Q33" t="n">
+      <c r="R33" t="n">
         <v>13.8</v>
       </c>
-      <c r="R33" t="n">
+      <c r="S33" t="n">
         <v>7.3</v>
       </c>
-      <c r="S33" t="n">
+      <c r="T33" t="n">
         <v>10</v>
       </c>
-      <c r="T33" t="n">
+      <c r="U33" t="n">
         <v>9.1</v>
       </c>
-      <c r="U33" t="n">
+      <c r="V33" t="n">
         <v>8.5</v>
       </c>
-      <c r="V33" t="n">
+      <c r="W33" t="n">
         <v>7.8</v>
       </c>
-      <c r="W33" t="n">
+      <c r="X33" t="n">
         <v>8.6</v>
       </c>
-      <c r="X33" t="n">
+      <c r="Y33" t="n">
         <v>6.1</v>
       </c>
-      <c r="Y33" t="n">
+      <c r="Z33" t="n">
         <v>6.9</v>
       </c>
-      <c r="Z33" t="n">
+      <c r="AA33" t="n">
         <v>12.6</v>
       </c>
-      <c r="AA33" t="n">
+      <c r="AB33" t="n">
         <v>7.2</v>
       </c>
-      <c r="AB33" t="n">
+      <c r="AC33" t="n">
         <v>5</v>
       </c>
-      <c r="AC33" t="n">
+      <c r="AD33" t="n">
         <v>3.4</v>
       </c>
-      <c r="AD33" t="n">
+      <c r="AE33" t="n">
         <v>6.1</v>
       </c>
-      <c r="AE33" t="n">
+      <c r="AF33" t="n">
         <v>8</v>
       </c>
-      <c r="AF33" t="n">
+      <c r="AG33" t="n">
         <v>10.7</v>
       </c>
-      <c r="AG33" t="n">
+      <c r="AH33" t="n">
         <v>7.4</v>
       </c>
-      <c r="AH33" t="n">
+      <c r="AI33" t="n">
         <v>3.5</v>
       </c>
-      <c r="AI33" t="n">
+      <c r="AJ33" t="n">
         <v>5</v>
       </c>
-      <c r="AJ33" t="n">
+      <c r="AK33" t="n">
         <v>6.1</v>
       </c>
-      <c r="AK33" t="n">
+      <c r="AL33" t="n">
         <v>4.9</v>
       </c>
-      <c r="AL33" t="n">
+      <c r="AM33" t="n">
         <v>5.4</v>
       </c>
-      <c r="AM33" t="n">
+      <c r="AN33" t="n">
         <v>3.2</v>
       </c>
-      <c r="AN33" t="n">
+      <c r="AO33" t="n">
         <v>6.6</v>
       </c>
-      <c r="AO33" t="n">
+      <c r="AP33" t="n">
         <v>4.4</v>
       </c>
-      <c r="AP33" t="n">
+      <c r="AQ33" t="n">
         <v>4.8</v>
       </c>
-      <c r="AQ33" t="n">
+      <c r="AR33" t="n">
         <v>5.2</v>
       </c>
-      <c r="AR33" t="n">
+      <c r="AS33" t="n">
         <v>4.9</v>
       </c>
     </row>
@@ -5017,127 +5100,132 @@
           <t>MW</t>
         </is>
       </c>
-      <c r="D34" t="n">
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>MWI</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
         <v>19.2</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
         <v>12</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34" t="n">
         <v>9.5</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34" t="n">
         <v>13.8</v>
       </c>
-      <c r="H34" t="n">
+      <c r="I34" t="n">
         <v>19.7</v>
       </c>
-      <c r="I34" t="n">
+      <c r="J34" t="n">
         <v>10.6</v>
       </c>
-      <c r="J34" t="n">
+      <c r="K34" t="n">
         <v>14.2</v>
       </c>
-      <c r="K34" t="n">
+      <c r="L34" t="n">
         <v>25.1</v>
       </c>
-      <c r="L34" t="n">
+      <c r="M34" t="n">
         <v>33.8</v>
       </c>
-      <c r="M34" t="n">
+      <c r="N34" t="n">
         <v>12.5</v>
       </c>
-      <c r="N34" t="n">
+      <c r="O34" t="n">
         <v>11.9</v>
       </c>
-      <c r="O34" t="n">
+      <c r="P34" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="P34" t="n">
+      <c r="Q34" t="n">
         <v>23.2</v>
       </c>
-      <c r="Q34" t="n">
+      <c r="R34" t="n">
         <v>22.8</v>
       </c>
-      <c r="R34" t="n">
+      <c r="S34" t="n">
         <v>34.7</v>
       </c>
-      <c r="S34" t="n">
+      <c r="T34" t="n">
         <v>83.09999999999999</v>
       </c>
-      <c r="T34" t="n">
+      <c r="U34" t="n">
         <v>37.7</v>
       </c>
-      <c r="U34" t="n">
+      <c r="V34" t="n">
         <v>9.1</v>
       </c>
-      <c r="V34" t="n">
+      <c r="W34" t="n">
         <v>29.8</v>
       </c>
-      <c r="W34" t="n">
+      <c r="X34" t="n">
         <v>44.8</v>
       </c>
-      <c r="X34" t="n">
+      <c r="Y34" t="n">
         <v>29.6</v>
       </c>
-      <c r="Y34" t="n">
+      <c r="Z34" t="n">
         <v>7.6</v>
       </c>
-      <c r="Z34" t="n">
+      <c r="AA34" t="n">
         <v>7.7</v>
       </c>
-      <c r="AA34" t="n">
+      <c r="AB34" t="n">
         <v>7.8</v>
       </c>
-      <c r="AB34" t="n">
+      <c r="AC34" t="n">
         <v>8</v>
       </c>
-      <c r="AC34" t="n">
+      <c r="AD34" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="AD34" t="n">
+      <c r="AE34" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="AE34" t="n">
+      <c r="AF34" t="n">
         <v>8.5</v>
       </c>
-      <c r="AF34" t="n">
+      <c r="AG34" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="AG34" t="n">
+      <c r="AH34" t="n">
         <v>8.4</v>
       </c>
-      <c r="AH34" t="n">
+      <c r="AI34" t="n">
         <v>7.4</v>
       </c>
-      <c r="AI34" t="n">
+      <c r="AJ34" t="n">
         <v>7.6</v>
       </c>
-      <c r="AJ34" t="n">
+      <c r="AK34" t="n">
         <v>21.3</v>
       </c>
-      <c r="AK34" t="n">
+      <c r="AL34" t="n">
         <v>28.3</v>
       </c>
-      <c r="AL34" t="n">
+      <c r="AM34" t="n">
         <v>23.8</v>
       </c>
-      <c r="AM34" t="n">
+      <c r="AN34" t="n">
         <v>21.9</v>
       </c>
-      <c r="AN34" t="n">
+      <c r="AO34" t="n">
         <v>21.7</v>
       </c>
-      <c r="AO34" t="n">
+      <c r="AP34" t="n">
         <v>11.5</v>
       </c>
-      <c r="AP34" t="n">
+      <c r="AQ34" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="AQ34" t="n">
+      <c r="AR34" t="n">
         <v>9.4</v>
       </c>
-      <c r="AR34" t="n">
+      <c r="AS34" t="n">
         <v>8.6</v>
       </c>
     </row>
@@ -5157,127 +5245,132 @@
           <t>MZ</t>
         </is>
       </c>
-      <c r="D35" t="n">
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>MOZ</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
         <v>2</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>4.2</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35" t="n">
         <v>17.7</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35" t="n">
         <v>28.2</v>
       </c>
-      <c r="H35" t="n">
+      <c r="I35" t="n">
         <v>30</v>
       </c>
-      <c r="I35" t="n">
+      <c r="J35" t="n">
         <v>30.8</v>
       </c>
-      <c r="J35" t="n">
+      <c r="K35" t="n">
         <v>40.5</v>
       </c>
-      <c r="K35" t="n">
+      <c r="L35" t="n">
         <v>164.1</v>
       </c>
-      <c r="L35" t="n">
+      <c r="M35" t="n">
         <v>58.5</v>
       </c>
-      <c r="M35" t="n">
+      <c r="N35" t="n">
         <v>42.1</v>
       </c>
-      <c r="N35" t="n">
+      <c r="O35" t="n">
         <v>43.7</v>
       </c>
-      <c r="O35" t="n">
+      <c r="P35" t="n">
         <v>33.3</v>
       </c>
-      <c r="P35" t="n">
+      <c r="Q35" t="n">
         <v>45.1</v>
       </c>
-      <c r="Q35" t="n">
+      <c r="R35" t="n">
         <v>42.3</v>
       </c>
-      <c r="R35" t="n">
+      <c r="S35" t="n">
         <v>63.1</v>
       </c>
-      <c r="S35" t="n">
+      <c r="T35" t="n">
         <v>47.7</v>
       </c>
-      <c r="T35" t="n">
+      <c r="U35" t="n">
         <v>48.5</v>
       </c>
-      <c r="U35" t="n">
+      <c r="V35" t="n">
         <v>7.4</v>
       </c>
-      <c r="V35" t="n">
+      <c r="W35" t="n">
         <v>1.5</v>
       </c>
-      <c r="W35" t="n">
+      <c r="X35" t="n">
         <v>2.9</v>
       </c>
-      <c r="X35" t="n">
+      <c r="Y35" t="n">
         <v>12.7</v>
       </c>
-      <c r="Y35" t="n">
+      <c r="Z35" t="n">
         <v>9.1</v>
       </c>
-      <c r="Z35" t="n">
+      <c r="AA35" t="n">
         <v>16.8</v>
       </c>
-      <c r="AA35" t="n">
+      <c r="AB35" t="n">
         <v>13.5</v>
       </c>
-      <c r="AB35" t="n">
+      <c r="AC35" t="n">
         <v>12.6</v>
       </c>
-      <c r="AC35" t="n">
+      <c r="AD35" t="n">
         <v>6.4</v>
       </c>
-      <c r="AD35" t="n">
+      <c r="AE35" t="n">
         <v>13.2</v>
       </c>
-      <c r="AE35" t="n">
+      <c r="AF35" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="AF35" t="n">
+      <c r="AG35" t="n">
         <v>14.5</v>
       </c>
-      <c r="AG35" t="n">
+      <c r="AH35" t="n">
         <v>3.8</v>
       </c>
-      <c r="AH35" t="n">
+      <c r="AI35" t="n">
         <v>12.4</v>
       </c>
-      <c r="AI35" t="n">
+      <c r="AJ35" t="n">
         <v>11.2</v>
       </c>
-      <c r="AJ35" t="n">
+      <c r="AK35" t="n">
         <v>2.6</v>
       </c>
-      <c r="AK35" t="n">
+      <c r="AL35" t="n">
         <v>4.3</v>
       </c>
-      <c r="AL35" t="n">
+      <c r="AM35" t="n">
         <v>2.6</v>
       </c>
-      <c r="AM35" t="n">
+      <c r="AN35" t="n">
         <v>3.6</v>
       </c>
-      <c r="AN35" t="n">
+      <c r="AO35" t="n">
         <v>19.9</v>
       </c>
-      <c r="AO35" t="n">
+      <c r="AP35" t="n">
         <v>15.1</v>
       </c>
-      <c r="AP35" t="n">
+      <c r="AQ35" t="n">
         <v>3.9</v>
       </c>
-      <c r="AQ35" t="n">
+      <c r="AR35" t="n">
         <v>2.8</v>
       </c>
-      <c r="AR35" t="n">
+      <c r="AS35" t="n">
         <v>3.1</v>
       </c>
     </row>
@@ -5292,8 +5385,16 @@
           <t>south</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>NAM</t>
+        </is>
+      </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
@@ -5303,97 +5404,98 @@
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="n">
         <v>13.7</v>
       </c>
-      <c r="O36" t="n">
+      <c r="P36" t="n">
         <v>13.5</v>
       </c>
-      <c r="P36" t="n">
+      <c r="Q36" t="n">
         <v>21.6</v>
       </c>
-      <c r="Q36" t="n">
+      <c r="R36" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="R36" t="n">
+      <c r="S36" t="n">
         <v>12.1</v>
       </c>
-      <c r="S36" t="n">
+      <c r="T36" t="n">
         <v>11.1</v>
       </c>
-      <c r="T36" t="n">
+      <c r="U36" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="U36" t="n">
+      <c r="V36" t="n">
         <v>9.699999999999999</v>
       </c>
-      <c r="V36" t="n">
+      <c r="W36" t="n">
         <v>6.6</v>
       </c>
-      <c r="W36" t="n">
+      <c r="X36" t="n">
         <v>9.4</v>
-      </c>
-      <c r="X36" t="n">
-        <v>10.2</v>
       </c>
       <c r="Y36" t="n">
         <v>10.2</v>
       </c>
       <c r="Z36" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="AA36" t="n">
         <v>12.7</v>
       </c>
-      <c r="AA36" t="n">
+      <c r="AB36" t="n">
         <v>7.2</v>
       </c>
-      <c r="AB36" t="n">
+      <c r="AC36" t="n">
         <v>4.1</v>
       </c>
-      <c r="AC36" t="n">
+      <c r="AD36" t="n">
         <v>2.3</v>
       </c>
-      <c r="AD36" t="n">
+      <c r="AE36" t="n">
         <v>5</v>
       </c>
-      <c r="AE36" t="n">
+      <c r="AF36" t="n">
         <v>6.5</v>
       </c>
-      <c r="AF36" t="n">
+      <c r="AG36" t="n">
         <v>9.1</v>
       </c>
-      <c r="AG36" t="n">
+      <c r="AH36" t="n">
         <v>9.5</v>
       </c>
-      <c r="AH36" t="n">
+      <c r="AI36" t="n">
         <v>4.9</v>
       </c>
-      <c r="AI36" t="n">
+      <c r="AJ36" t="n">
         <v>5</v>
       </c>
-      <c r="AJ36" t="n">
+      <c r="AK36" t="n">
         <v>6.7</v>
       </c>
-      <c r="AK36" t="n">
+      <c r="AL36" t="n">
         <v>5.6</v>
       </c>
-      <c r="AL36" t="n">
+      <c r="AM36" t="n">
         <v>5.3</v>
       </c>
-      <c r="AM36" t="n">
+      <c r="AN36" t="n">
         <v>3.4</v>
       </c>
-      <c r="AN36" t="n">
+      <c r="AO36" t="n">
         <v>6.7</v>
       </c>
-      <c r="AO36" t="n">
+      <c r="AP36" t="n">
         <v>6.1</v>
       </c>
-      <c r="AP36" t="n">
+      <c r="AQ36" t="n">
         <v>4.3</v>
       </c>
-      <c r="AQ36" t="n">
+      <c r="AR36" t="n">
         <v>3.7</v>
       </c>
-      <c r="AR36" t="n">
+      <c r="AS36" t="n">
         <v>2.6</v>
       </c>
     </row>
@@ -5413,127 +5515,132 @@
           <t>ZA</t>
         </is>
       </c>
-      <c r="D37" t="n">
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>ZAF</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
         <v>14.2</v>
       </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
         <v>15.3</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37" t="n">
         <v>14.4</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37" t="n">
         <v>12.5</v>
       </c>
-      <c r="H37" t="n">
+      <c r="I37" t="n">
         <v>11.3</v>
       </c>
-      <c r="I37" t="n">
+      <c r="J37" t="n">
         <v>16.4</v>
       </c>
-      <c r="J37" t="n">
+      <c r="K37" t="n">
         <v>18.4</v>
       </c>
-      <c r="K37" t="n">
+      <c r="L37" t="n">
         <v>16.2</v>
       </c>
-      <c r="L37" t="n">
+      <c r="M37" t="n">
         <v>12.9</v>
       </c>
-      <c r="M37" t="n">
+      <c r="N37" t="n">
         <v>14.8</v>
       </c>
-      <c r="N37" t="n">
+      <c r="O37" t="n">
         <v>14.2</v>
       </c>
-      <c r="O37" t="n">
+      <c r="P37" t="n">
         <v>15.2</v>
       </c>
-      <c r="P37" t="n">
+      <c r="Q37" t="n">
         <v>14.1</v>
       </c>
-      <c r="Q37" t="n">
+      <c r="R37" t="n">
         <v>9.699999999999999</v>
-      </c>
-      <c r="R37" t="n">
-        <v>8.800000000000001</v>
       </c>
       <c r="S37" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="T37" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="U37" t="n">
         <v>7.4</v>
       </c>
-      <c r="U37" t="n">
+      <c r="V37" t="n">
         <v>8.6</v>
       </c>
-      <c r="V37" t="n">
+      <c r="W37" t="n">
         <v>7</v>
       </c>
-      <c r="W37" t="n">
+      <c r="X37" t="n">
         <v>5.1</v>
       </c>
-      <c r="X37" t="n">
+      <c r="Y37" t="n">
         <v>5.4</v>
       </c>
-      <c r="Y37" t="n">
+      <c r="Z37" t="n">
         <v>5.6</v>
       </c>
-      <c r="Z37" t="n">
+      <c r="AA37" t="n">
         <v>9.1</v>
       </c>
-      <c r="AA37" t="n">
+      <c r="AB37" t="n">
         <v>5.9</v>
       </c>
-      <c r="AB37" t="n">
+      <c r="AC37" t="n">
         <v>1.4</v>
       </c>
-      <c r="AC37" t="n">
+      <c r="AD37" t="n">
         <v>3.4</v>
       </c>
-      <c r="AD37" t="n">
+      <c r="AE37" t="n">
         <v>4.6</v>
       </c>
-      <c r="AE37" t="n">
+      <c r="AF37" t="n">
         <v>7.2</v>
       </c>
-      <c r="AF37" t="n">
+      <c r="AG37" t="n">
         <v>11</v>
       </c>
-      <c r="AG37" t="n">
+      <c r="AH37" t="n">
         <v>7.1</v>
       </c>
-      <c r="AH37" t="n">
+      <c r="AI37" t="n">
         <v>4.3</v>
       </c>
-      <c r="AI37" t="n">
+      <c r="AJ37" t="n">
         <v>5</v>
       </c>
-      <c r="AJ37" t="n">
+      <c r="AK37" t="n">
         <v>5.6</v>
       </c>
-      <c r="AK37" t="n">
+      <c r="AL37" t="n">
         <v>5.8</v>
       </c>
-      <c r="AL37" t="n">
+      <c r="AM37" t="n">
         <v>6.1</v>
       </c>
-      <c r="AM37" t="n">
+      <c r="AN37" t="n">
         <v>4.6</v>
       </c>
-      <c r="AN37" t="n">
+      <c r="AO37" t="n">
         <v>6.3</v>
       </c>
-      <c r="AO37" t="n">
+      <c r="AP37" t="n">
         <v>5.3</v>
       </c>
-      <c r="AP37" t="n">
+      <c r="AQ37" t="n">
         <v>4.6</v>
       </c>
-      <c r="AQ37" t="n">
+      <c r="AR37" t="n">
         <v>4.1</v>
       </c>
-      <c r="AR37" t="n">
+      <c r="AS37" t="n">
         <v>3.3</v>
       </c>
     </row>
@@ -5553,127 +5660,132 @@
           <t>ZM</t>
         </is>
       </c>
-      <c r="D38" t="n">
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>ZMB</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
         <v>11.7</v>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
         <v>14</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38" t="n">
         <v>12.5</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38" t="n">
         <v>19.7</v>
       </c>
-      <c r="H38" t="n">
+      <c r="I38" t="n">
         <v>20</v>
       </c>
-      <c r="I38" t="n">
+      <c r="J38" t="n">
         <v>37.4</v>
       </c>
-      <c r="J38" t="n">
+      <c r="K38" t="n">
         <v>54.8</v>
       </c>
-      <c r="K38" t="n">
+      <c r="L38" t="n">
         <v>47</v>
       </c>
-      <c r="L38" t="n">
+      <c r="M38" t="n">
         <v>54</v>
       </c>
-      <c r="M38" t="n">
+      <c r="N38" t="n">
         <v>128.3</v>
       </c>
-      <c r="N38" t="n">
+      <c r="O38" t="n">
         <v>109.6</v>
       </c>
-      <c r="O38" t="n">
+      <c r="P38" t="n">
         <v>97.7</v>
       </c>
-      <c r="P38" t="n">
+      <c r="Q38" t="n">
         <v>165.7</v>
       </c>
-      <c r="Q38" t="n">
+      <c r="R38" t="n">
         <v>183.3</v>
       </c>
-      <c r="R38" t="n">
+      <c r="S38" t="n">
         <v>54.6</v>
       </c>
-      <c r="S38" t="n">
+      <c r="T38" t="n">
         <v>34.9</v>
       </c>
-      <c r="T38" t="n">
+      <c r="U38" t="n">
         <v>43.1</v>
       </c>
-      <c r="U38" t="n">
+      <c r="V38" t="n">
         <v>24.4</v>
       </c>
-      <c r="V38" t="n">
+      <c r="W38" t="n">
         <v>24.5</v>
       </c>
-      <c r="W38" t="n">
+      <c r="X38" t="n">
         <v>26.8</v>
       </c>
-      <c r="X38" t="n">
+      <c r="Y38" t="n">
         <v>26.1</v>
       </c>
-      <c r="Y38" t="n">
+      <c r="Z38" t="n">
         <v>21.4</v>
       </c>
-      <c r="Z38" t="n">
+      <c r="AA38" t="n">
         <v>22.2</v>
       </c>
-      <c r="AA38" t="n">
+      <c r="AB38" t="n">
         <v>21.4</v>
       </c>
-      <c r="AB38" t="n">
+      <c r="AC38" t="n">
         <v>18</v>
       </c>
-      <c r="AC38" t="n">
+      <c r="AD38" t="n">
         <v>18.3</v>
       </c>
-      <c r="AD38" t="n">
+      <c r="AE38" t="n">
         <v>9</v>
       </c>
-      <c r="AE38" t="n">
+      <c r="AF38" t="n">
         <v>10.7</v>
       </c>
-      <c r="AF38" t="n">
+      <c r="AG38" t="n">
         <v>12.4</v>
       </c>
-      <c r="AG38" t="n">
+      <c r="AH38" t="n">
         <v>13.4</v>
       </c>
-      <c r="AH38" t="n">
+      <c r="AI38" t="n">
         <v>8.5</v>
       </c>
-      <c r="AI38" t="n">
+      <c r="AJ38" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="AJ38" t="n">
+      <c r="AK38" t="n">
         <v>6.6</v>
       </c>
-      <c r="AK38" t="n">
+      <c r="AL38" t="n">
         <v>7</v>
       </c>
-      <c r="AL38" t="n">
+      <c r="AM38" t="n">
         <v>7.8</v>
       </c>
-      <c r="AM38" t="n">
+      <c r="AN38" t="n">
         <v>10.1</v>
       </c>
-      <c r="AN38" t="n">
+      <c r="AO38" t="n">
         <v>17.9</v>
       </c>
-      <c r="AO38" t="n">
+      <c r="AP38" t="n">
         <v>6.6</v>
       </c>
-      <c r="AP38" t="n">
+      <c r="AQ38" t="n">
         <v>7</v>
       </c>
-      <c r="AQ38" t="n">
+      <c r="AR38" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="AR38" t="n">
+      <c r="AS38" t="n">
         <v>16.3</v>
       </c>
     </row>
@@ -5693,125 +5805,130 @@
           <t>ZW</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="n">
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>ZWE</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="n">
         <v>5.6</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39" t="n">
         <v>0.6</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39" t="n">
         <v>-8.5</v>
       </c>
-      <c r="H39" t="n">
+      <c r="I39" t="n">
         <v>-1.9</v>
       </c>
-      <c r="I39" t="n">
+      <c r="J39" t="n">
         <v>-16</v>
       </c>
-      <c r="J39" t="n">
+      <c r="K39" t="n">
         <v>10.7</v>
       </c>
-      <c r="K39" t="n">
+      <c r="L39" t="n">
         <v>12.8</v>
       </c>
-      <c r="L39" t="n">
+      <c r="M39" t="n">
         <v>-1.1</v>
       </c>
-      <c r="M39" t="n">
+      <c r="N39" t="n">
         <v>-3.8</v>
       </c>
-      <c r="N39" t="n">
+      <c r="O39" t="n">
         <v>1.3</v>
       </c>
-      <c r="O39" t="n">
+      <c r="P39" t="n">
         <v>-13.1</v>
       </c>
-      <c r="P39" t="n">
+      <c r="Q39" t="n">
         <v>-3</v>
       </c>
-      <c r="Q39" t="n">
+      <c r="R39" t="n">
         <v>0.4</v>
       </c>
-      <c r="R39" t="n">
+      <c r="S39" t="n">
         <v>-2.8</v>
       </c>
-      <c r="S39" t="n">
+      <c r="T39" t="n">
         <v>15.2</v>
       </c>
-      <c r="T39" t="n">
+      <c r="U39" t="n">
         <v>6</v>
       </c>
-      <c r="U39" t="n">
+      <c r="V39" t="n">
         <v>-1</v>
       </c>
-      <c r="V39" t="n">
+      <c r="W39" t="n">
         <v>-28</v>
       </c>
-      <c r="W39" t="n">
+      <c r="X39" t="n">
         <v>-13.4</v>
       </c>
-      <c r="X39" t="n">
+      <c r="Y39" t="n">
         <v>4.5</v>
       </c>
-      <c r="Y39" t="n">
+      <c r="Z39" t="n">
         <v>-37.2</v>
       </c>
-      <c r="Z39" t="n">
+      <c r="AA39" t="n">
         <v>-34.4</v>
       </c>
-      <c r="AA39" t="n">
+      <c r="AB39" t="n">
         <v>-8.6</v>
       </c>
-      <c r="AB39" t="n">
+      <c r="AC39" t="n">
         <v>113.6</v>
       </c>
-      <c r="AC39" t="n">
+      <c r="AD39" t="n">
         <v>-31.5</v>
       </c>
-      <c r="AD39" t="n">
+      <c r="AE39" t="n">
         <v>33</v>
       </c>
-      <c r="AE39" t="n">
+      <c r="AF39" t="n">
         <v>-72.7</v>
       </c>
-      <c r="AF39" t="n">
+      <c r="AG39" t="n">
         <v>157</v>
       </c>
-      <c r="AG39" t="n">
+      <c r="AH39" t="n">
         <v>6.2</v>
       </c>
-      <c r="AH39" t="n">
+      <c r="AI39" t="n">
         <v>3</v>
       </c>
-      <c r="AI39" t="n">
+      <c r="AJ39" t="n">
         <v>3.5</v>
       </c>
-      <c r="AJ39" t="n">
+      <c r="AK39" t="n">
         <v>3.7</v>
       </c>
-      <c r="AK39" t="n">
+      <c r="AL39" t="n">
         <v>1.6</v>
       </c>
-      <c r="AL39" t="n">
+      <c r="AM39" t="n">
         <v>-0.2</v>
       </c>
-      <c r="AM39" t="n">
+      <c r="AN39" t="n">
         <v>-2.4</v>
       </c>
-      <c r="AN39" t="n">
+      <c r="AO39" t="n">
         <v>-1.6</v>
       </c>
-      <c r="AO39" t="n">
+      <c r="AP39" t="n">
         <v>0.9</v>
       </c>
-      <c r="AP39" t="n">
+      <c r="AQ39" t="n">
         <v>10.6</v>
       </c>
-      <c r="AQ39" t="n">
+      <c r="AR39" t="n">
         <v>255.3</v>
       </c>
-      <c r="AR39" t="n">
+      <c r="AS39" t="n">
         <v>557.2</v>
       </c>
     </row>
@@ -5831,127 +5948,132 @@
           <t>BJ</t>
         </is>
       </c>
-      <c r="D40" t="n">
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>BEN</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
         <v>9.6</v>
       </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
         <v>0.8</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40" t="n">
         <v>4.1</v>
       </c>
-      <c r="G40" t="n">
+      <c r="H40" t="n">
         <v>-6.1</v>
       </c>
-      <c r="H40" t="n">
+      <c r="I40" t="n">
         <v>10.3</v>
       </c>
-      <c r="I40" t="n">
+      <c r="J40" t="n">
         <v>1.2</v>
       </c>
-      <c r="J40" t="n">
+      <c r="K40" t="n">
         <v>0.4</v>
       </c>
-      <c r="K40" t="n">
+      <c r="L40" t="n">
         <v>-1.3</v>
       </c>
-      <c r="L40" t="n">
+      <c r="M40" t="n">
         <v>3.4</v>
       </c>
-      <c r="M40" t="n">
+      <c r="N40" t="n">
         <v>-0.2</v>
       </c>
-      <c r="N40" t="n">
+      <c r="O40" t="n">
         <v>1.1</v>
       </c>
-      <c r="O40" t="n">
+      <c r="P40" t="n">
         <v>2.1</v>
       </c>
-      <c r="P40" t="n">
+      <c r="Q40" t="n">
         <v>5.9</v>
       </c>
-      <c r="Q40" t="n">
+      <c r="R40" t="n">
         <v>0.4</v>
       </c>
-      <c r="R40" t="n">
+      <c r="S40" t="n">
         <v>38.5</v>
       </c>
-      <c r="S40" t="n">
+      <c r="T40" t="n">
         <v>14.5</v>
       </c>
-      <c r="T40" t="n">
+      <c r="U40" t="n">
         <v>4.9</v>
       </c>
-      <c r="U40" t="n">
+      <c r="V40" t="n">
         <v>3.8</v>
       </c>
-      <c r="V40" t="n">
+      <c r="W40" t="n">
         <v>5.8</v>
       </c>
-      <c r="W40" t="n">
+      <c r="X40" t="n">
         <v>0.3</v>
       </c>
-      <c r="X40" t="n">
+      <c r="Y40" t="n">
         <v>4.1</v>
       </c>
-      <c r="Y40" t="n">
+      <c r="Z40" t="n">
         <v>3.6</v>
       </c>
-      <c r="Z40" t="n">
+      <c r="AA40" t="n">
         <v>2.6</v>
       </c>
-      <c r="AA40" t="n">
+      <c r="AB40" t="n">
         <v>1.8</v>
       </c>
-      <c r="AB40" t="n">
+      <c r="AC40" t="n">
         <v>1.2</v>
       </c>
-      <c r="AC40" t="n">
+      <c r="AD40" t="n">
         <v>4.7</v>
       </c>
-      <c r="AD40" t="n">
+      <c r="AE40" t="n">
         <v>6.4</v>
       </c>
-      <c r="AE40" t="n">
+      <c r="AF40" t="n">
         <v>1.2</v>
       </c>
-      <c r="AF40" t="n">
+      <c r="AG40" t="n">
         <v>6.8</v>
       </c>
-      <c r="AG40" t="n">
+      <c r="AH40" t="n">
         <v>0.4</v>
       </c>
-      <c r="AH40" t="n">
+      <c r="AI40" t="n">
         <v>2.2</v>
       </c>
-      <c r="AI40" t="n">
+      <c r="AJ40" t="n">
         <v>2.7</v>
       </c>
-      <c r="AJ40" t="n">
+      <c r="AK40" t="n">
         <v>6.7</v>
       </c>
-      <c r="AK40" t="n">
+      <c r="AL40" t="n">
         <v>1</v>
       </c>
-      <c r="AL40" t="n">
+      <c r="AM40" t="n">
         <v>-1.1</v>
       </c>
-      <c r="AM40" t="n">
+      <c r="AN40" t="n">
         <v>0.2</v>
       </c>
-      <c r="AN40" t="n">
+      <c r="AO40" t="n">
         <v>-0.8</v>
       </c>
-      <c r="AO40" t="n">
+      <c r="AP40" t="n">
         <v>1.8</v>
       </c>
-      <c r="AP40" t="n">
+      <c r="AQ40" t="n">
         <v>0.8</v>
       </c>
-      <c r="AQ40" t="n">
+      <c r="AR40" t="n">
         <v>-0.9</v>
       </c>
-      <c r="AR40" t="n">
+      <c r="AS40" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5971,127 +6093,132 @@
           <t>BF</t>
         </is>
       </c>
-      <c r="D41" t="n">
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
         <v>12.3</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
         <v>7.6</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41" t="n">
         <v>12.1</v>
       </c>
-      <c r="G41" t="n">
+      <c r="H41" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="H41" t="n">
+      <c r="I41" t="n">
         <v>4.8</v>
       </c>
-      <c r="I41" t="n">
+      <c r="J41" t="n">
         <v>7.1</v>
       </c>
-      <c r="J41" t="n">
+      <c r="K41" t="n">
         <v>-2.7</v>
       </c>
-      <c r="K41" t="n">
+      <c r="L41" t="n">
         <v>-2.9</v>
       </c>
-      <c r="L41" t="n">
+      <c r="M41" t="n">
         <v>4.2</v>
       </c>
-      <c r="M41" t="n">
+      <c r="N41" t="n">
         <v>-0.3</v>
       </c>
-      <c r="N41" t="n">
+      <c r="O41" t="n">
         <v>-0.8</v>
       </c>
-      <c r="O41" t="n">
+      <c r="P41" t="n">
         <v>2.5</v>
       </c>
-      <c r="P41" t="n">
+      <c r="Q41" t="n">
         <v>-2</v>
       </c>
-      <c r="Q41" t="n">
+      <c r="R41" t="n">
         <v>0.6</v>
       </c>
-      <c r="R41" t="n">
+      <c r="S41" t="n">
         <v>24.7</v>
       </c>
-      <c r="S41" t="n">
+      <c r="T41" t="n">
         <v>7.8</v>
       </c>
-      <c r="T41" t="n">
+      <c r="U41" t="n">
         <v>6.1</v>
       </c>
-      <c r="U41" t="n">
+      <c r="V41" t="n">
         <v>2.9</v>
       </c>
-      <c r="V41" t="n">
+      <c r="W41" t="n">
         <v>4.9</v>
       </c>
-      <c r="W41" t="n">
+      <c r="X41" t="n">
         <v>-1.1</v>
       </c>
-      <c r="X41" t="n">
+      <c r="Y41" t="n">
         <v>-0.2</v>
       </c>
-      <c r="Y41" t="n">
+      <c r="Z41" t="n">
         <v>4.7</v>
       </c>
-      <c r="Z41" t="n">
+      <c r="AA41" t="n">
         <v>2.3</v>
       </c>
-      <c r="AA41" t="n">
+      <c r="AB41" t="n">
         <v>2</v>
       </c>
-      <c r="AB41" t="n">
+      <c r="AC41" t="n">
         <v>-0.4</v>
       </c>
-      <c r="AC41" t="n">
+      <c r="AD41" t="n">
         <v>6.4</v>
       </c>
-      <c r="AD41" t="n">
+      <c r="AE41" t="n">
         <v>2.3</v>
       </c>
-      <c r="AE41" t="n">
+      <c r="AF41" t="n">
         <v>-0.2</v>
       </c>
-      <c r="AF41" t="n">
+      <c r="AG41" t="n">
         <v>10.7</v>
       </c>
-      <c r="AG41" t="n">
+      <c r="AH41" t="n">
         <v>0.9</v>
       </c>
-      <c r="AH41" t="n">
+      <c r="AI41" t="n">
         <v>-0.6</v>
       </c>
-      <c r="AI41" t="n">
+      <c r="AJ41" t="n">
         <v>2.8</v>
       </c>
-      <c r="AJ41" t="n">
+      <c r="AK41" t="n">
         <v>3.8</v>
       </c>
-      <c r="AK41" t="n">
+      <c r="AL41" t="n">
         <v>0.5</v>
       </c>
-      <c r="AL41" t="n">
+      <c r="AM41" t="n">
         <v>-0.3</v>
       </c>
-      <c r="AM41" t="n">
+      <c r="AN41" t="n">
         <v>1.7</v>
       </c>
-      <c r="AN41" t="n">
+      <c r="AO41" t="n">
         <v>0.4</v>
       </c>
-      <c r="AO41" t="n">
+      <c r="AP41" t="n">
         <v>1.5</v>
       </c>
-      <c r="AP41" t="n">
+      <c r="AQ41" t="n">
         <v>2</v>
       </c>
-      <c r="AQ41" t="n">
+      <c r="AR41" t="n">
         <v>-3.2</v>
       </c>
-      <c r="AR41" t="n">
+      <c r="AS41" t="n">
         <v>1.9</v>
       </c>
     </row>
@@ -6111,127 +6238,132 @@
           <t>CV</t>
         </is>
       </c>
-      <c r="D42" t="n">
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>CPV</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
         <v>15.1</v>
       </c>
-      <c r="E42" t="n">
+      <c r="F42" t="n">
         <v>20.7</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42" t="n">
         <v>21.1</v>
       </c>
-      <c r="G42" t="n">
+      <c r="H42" t="n">
         <v>20.2</v>
       </c>
-      <c r="H42" t="n">
+      <c r="I42" t="n">
         <v>9.699999999999999</v>
       </c>
-      <c r="I42" t="n">
+      <c r="J42" t="n">
         <v>5.9</v>
       </c>
-      <c r="J42" t="n">
+      <c r="K42" t="n">
         <v>11.1</v>
       </c>
-      <c r="K42" t="n">
+      <c r="L42" t="n">
         <v>3.7</v>
       </c>
-      <c r="L42" t="n">
+      <c r="M42" t="n">
         <v>3.6</v>
       </c>
-      <c r="M42" t="n">
+      <c r="N42" t="n">
         <v>4.7</v>
       </c>
-      <c r="N42" t="n">
+      <c r="O42" t="n">
         <v>11.1</v>
       </c>
-      <c r="O42" t="n">
+      <c r="P42" t="n">
         <v>7.6</v>
       </c>
-      <c r="P42" t="n">
+      <c r="Q42" t="n">
         <v>13.4</v>
       </c>
-      <c r="Q42" t="n">
+      <c r="R42" t="n">
         <v>5.8</v>
       </c>
-      <c r="R42" t="n">
+      <c r="S42" t="n">
         <v>3.3</v>
       </c>
-      <c r="S42" t="n">
+      <c r="T42" t="n">
         <v>8.4</v>
       </c>
-      <c r="T42" t="n">
+      <c r="U42" t="n">
         <v>6</v>
       </c>
-      <c r="U42" t="n">
+      <c r="V42" t="n">
         <v>8.6</v>
       </c>
-      <c r="V42" t="n">
+      <c r="W42" t="n">
         <v>4.4</v>
       </c>
-      <c r="W42" t="n">
+      <c r="X42" t="n">
         <v>4.3</v>
       </c>
-      <c r="X42" t="n">
+      <c r="Y42" t="n">
         <v>-2.4</v>
       </c>
-      <c r="Y42" t="n">
+      <c r="Z42" t="n">
         <v>3.7</v>
       </c>
-      <c r="Z42" t="n">
+      <c r="AA42" t="n">
         <v>1.9</v>
       </c>
-      <c r="AA42" t="n">
+      <c r="AB42" t="n">
         <v>1.2</v>
       </c>
-      <c r="AB42" t="n">
+      <c r="AC42" t="n">
         <v>-1.9</v>
       </c>
-      <c r="AC42" t="n">
+      <c r="AD42" t="n">
         <v>0.4</v>
       </c>
-      <c r="AD42" t="n">
+      <c r="AE42" t="n">
         <v>4.8</v>
       </c>
-      <c r="AE42" t="n">
+      <c r="AF42" t="n">
         <v>4.4</v>
       </c>
-      <c r="AF42" t="n">
+      <c r="AG42" t="n">
         <v>6.8</v>
       </c>
-      <c r="AG42" t="n">
+      <c r="AH42" t="n">
         <v>1</v>
       </c>
-      <c r="AH42" t="n">
+      <c r="AI42" t="n">
         <v>2.1</v>
       </c>
-      <c r="AI42" t="n">
+      <c r="AJ42" t="n">
         <v>4.5</v>
       </c>
-      <c r="AJ42" t="n">
+      <c r="AK42" t="n">
         <v>2.5</v>
       </c>
-      <c r="AK42" t="n">
+      <c r="AL42" t="n">
         <v>1.5</v>
       </c>
-      <c r="AL42" t="n">
+      <c r="AM42" t="n">
         <v>-0.2</v>
       </c>
-      <c r="AM42" t="n">
+      <c r="AN42" t="n">
         <v>0.1</v>
       </c>
-      <c r="AN42" t="n">
+      <c r="AO42" t="n">
         <v>-1.4</v>
       </c>
-      <c r="AO42" t="n">
+      <c r="AP42" t="n">
         <v>0.8</v>
       </c>
-      <c r="AP42" t="n">
+      <c r="AQ42" t="n">
         <v>1.3</v>
       </c>
-      <c r="AQ42" t="n">
+      <c r="AR42" t="n">
         <v>1.1</v>
       </c>
-      <c r="AR42" t="n">
+      <c r="AS42" t="n">
         <v>0.6</v>
       </c>
     </row>
@@ -6251,127 +6383,132 @@
           <t>CI</t>
         </is>
       </c>
-      <c r="D43" t="n">
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>CIV</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="E43" t="n">
+      <c r="F43" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43" t="n">
         <v>7.4</v>
       </c>
-      <c r="G43" t="n">
+      <c r="H43" t="n">
         <v>5.9</v>
       </c>
-      <c r="H43" t="n">
+      <c r="I43" t="n">
         <v>4.3</v>
       </c>
-      <c r="I43" t="n">
+      <c r="J43" t="n">
         <v>1.8</v>
       </c>
-      <c r="J43" t="n">
+      <c r="K43" t="n">
         <v>6.8</v>
       </c>
-      <c r="K43" t="n">
+      <c r="L43" t="n">
         <v>7</v>
       </c>
-      <c r="L43" t="n">
+      <c r="M43" t="n">
         <v>6.9</v>
       </c>
-      <c r="M43" t="n">
+      <c r="N43" t="n">
         <v>1</v>
       </c>
-      <c r="N43" t="n">
+      <c r="O43" t="n">
         <v>-0.7</v>
       </c>
-      <c r="O43" t="n">
+      <c r="P43" t="n">
         <v>1.6</v>
       </c>
-      <c r="P43" t="n">
+      <c r="Q43" t="n">
         <v>4.2</v>
       </c>
-      <c r="Q43" t="n">
+      <c r="R43" t="n">
         <v>2.1</v>
       </c>
-      <c r="R43" t="n">
+      <c r="S43" t="n">
         <v>26</v>
       </c>
-      <c r="S43" t="n">
+      <c r="T43" t="n">
         <v>14.1</v>
       </c>
-      <c r="T43" t="n">
+      <c r="U43" t="n">
         <v>2.7</v>
       </c>
-      <c r="U43" t="n">
+      <c r="V43" t="n">
         <v>6.3</v>
       </c>
-      <c r="V43" t="n">
+      <c r="W43" t="n">
         <v>4.5</v>
       </c>
-      <c r="W43" t="n">
+      <c r="X43" t="n">
         <v>0.7</v>
       </c>
-      <c r="X43" t="n">
+      <c r="Y43" t="n">
         <v>2.5</v>
       </c>
-      <c r="Y43" t="n">
+      <c r="Z43" t="n">
         <v>4.4</v>
       </c>
-      <c r="Z43" t="n">
+      <c r="AA43" t="n">
         <v>3.1</v>
       </c>
-      <c r="AA43" t="n">
+      <c r="AB43" t="n">
         <v>3.3</v>
       </c>
-      <c r="AB43" t="n">
+      <c r="AC43" t="n">
         <v>1.5</v>
       </c>
-      <c r="AC43" t="n">
+      <c r="AD43" t="n">
         <v>3.9</v>
       </c>
-      <c r="AD43" t="n">
+      <c r="AE43" t="n">
         <v>2.5</v>
       </c>
-      <c r="AE43" t="n">
+      <c r="AF43" t="n">
         <v>1.9</v>
       </c>
-      <c r="AF43" t="n">
+      <c r="AG43" t="n">
         <v>6.3</v>
       </c>
-      <c r="AG43" t="n">
+      <c r="AH43" t="n">
         <v>1</v>
       </c>
-      <c r="AH43" t="n">
+      <c r="AI43" t="n">
         <v>1.4</v>
       </c>
-      <c r="AI43" t="n">
+      <c r="AJ43" t="n">
         <v>4.9</v>
       </c>
-      <c r="AJ43" t="n">
+      <c r="AK43" t="n">
         <v>1.3</v>
       </c>
-      <c r="AK43" t="n">
+      <c r="AL43" t="n">
         <v>2.6</v>
       </c>
-      <c r="AL43" t="n">
+      <c r="AM43" t="n">
         <v>0.4</v>
       </c>
-      <c r="AM43" t="n">
+      <c r="AN43" t="n">
         <v>1.2</v>
-      </c>
-      <c r="AN43" t="n">
-        <v>0.7</v>
       </c>
       <c r="AO43" t="n">
         <v>0.7</v>
       </c>
       <c r="AP43" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AQ43" t="n">
         <v>0.4</v>
       </c>
-      <c r="AQ43" t="n">
+      <c r="AR43" t="n">
         <v>0.8</v>
       </c>
-      <c r="AR43" t="n">
+      <c r="AS43" t="n">
         <v>2.5</v>
       </c>
     </row>
@@ -6391,127 +6528,132 @@
           <t>GM</t>
         </is>
       </c>
-      <c r="D44" t="n">
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>GMB</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
         <v>5</v>
       </c>
-      <c r="E44" t="n">
+      <c r="F44" t="n">
         <v>7.9</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="G44" t="n">
+      <c r="H44" t="n">
         <v>10.6</v>
       </c>
-      <c r="H44" t="n">
+      <c r="I44" t="n">
         <v>22.1</v>
       </c>
-      <c r="I44" t="n">
+      <c r="J44" t="n">
         <v>18.3</v>
       </c>
-      <c r="J44" t="n">
+      <c r="K44" t="n">
         <v>56.6</v>
       </c>
-      <c r="K44" t="n">
+      <c r="L44" t="n">
         <v>23.7</v>
       </c>
-      <c r="L44" t="n">
+      <c r="M44" t="n">
         <v>11.5</v>
       </c>
-      <c r="M44" t="n">
+      <c r="N44" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="N44" t="n">
+      <c r="O44" t="n">
         <v>12.2</v>
       </c>
-      <c r="O44" t="n">
+      <c r="P44" t="n">
         <v>8.6</v>
       </c>
-      <c r="P44" t="n">
+      <c r="Q44" t="n">
         <v>9.5</v>
       </c>
-      <c r="Q44" t="n">
+      <c r="R44" t="n">
         <v>6.5</v>
       </c>
-      <c r="R44" t="n">
+      <c r="S44" t="n">
         <v>1.7</v>
       </c>
-      <c r="S44" t="n">
+      <c r="T44" t="n">
         <v>7</v>
       </c>
-      <c r="T44" t="n">
+      <c r="U44" t="n">
         <v>1.1</v>
       </c>
-      <c r="U44" t="n">
+      <c r="V44" t="n">
         <v>2.8</v>
       </c>
-      <c r="V44" t="n">
+      <c r="W44" t="n">
         <v>1.1</v>
       </c>
-      <c r="W44" t="n">
+      <c r="X44" t="n">
         <v>3.8</v>
       </c>
-      <c r="X44" t="n">
+      <c r="Y44" t="n">
         <v>0.9</v>
       </c>
-      <c r="Y44" t="n">
+      <c r="Z44" t="n">
         <v>4.5</v>
       </c>
-      <c r="Z44" t="n">
+      <c r="AA44" t="n">
         <v>8.6</v>
       </c>
-      <c r="AA44" t="n">
+      <c r="AB44" t="n">
         <v>17</v>
       </c>
-      <c r="AB44" t="n">
+      <c r="AC44" t="n">
         <v>14.3</v>
       </c>
-      <c r="AC44" t="n">
+      <c r="AD44" t="n">
         <v>5</v>
       </c>
-      <c r="AD44" t="n">
+      <c r="AE44" t="n">
         <v>2.1</v>
       </c>
-      <c r="AE44" t="n">
+      <c r="AF44" t="n">
         <v>5.4</v>
       </c>
-      <c r="AF44" t="n">
+      <c r="AG44" t="n">
         <v>4.5</v>
       </c>
-      <c r="AG44" t="n">
+      <c r="AH44" t="n">
         <v>4.6</v>
       </c>
-      <c r="AH44" t="n">
+      <c r="AI44" t="n">
         <v>5</v>
       </c>
-      <c r="AI44" t="n">
+      <c r="AJ44" t="n">
         <v>4.8</v>
       </c>
-      <c r="AJ44" t="n">
+      <c r="AK44" t="n">
         <v>4.6</v>
       </c>
-      <c r="AK44" t="n">
+      <c r="AL44" t="n">
         <v>5.2</v>
       </c>
-      <c r="AL44" t="n">
+      <c r="AM44" t="n">
         <v>6.3</v>
       </c>
-      <c r="AM44" t="n">
+      <c r="AN44" t="n">
         <v>6.8</v>
       </c>
-      <c r="AN44" t="n">
+      <c r="AO44" t="n">
         <v>7.2</v>
       </c>
-      <c r="AO44" t="n">
+      <c r="AP44" t="n">
         <v>8</v>
       </c>
-      <c r="AP44" t="n">
+      <c r="AQ44" t="n">
         <v>6.5</v>
       </c>
-      <c r="AQ44" t="n">
+      <c r="AR44" t="n">
         <v>7.1</v>
       </c>
-      <c r="AR44" t="n">
+      <c r="AS44" t="n">
         <v>5.9</v>
       </c>
     </row>
@@ -6531,127 +6673,132 @@
           <t>GH</t>
         </is>
       </c>
-      <c r="D45" t="n">
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
         <v>50</v>
       </c>
-      <c r="E45" t="n">
+      <c r="F45" t="n">
         <v>116.5</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45" t="n">
         <v>22.5</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45" t="n">
         <v>122.2</v>
       </c>
-      <c r="H45" t="n">
+      <c r="I45" t="n">
         <v>40</v>
       </c>
-      <c r="I45" t="n">
+      <c r="J45" t="n">
         <v>10.3</v>
       </c>
-      <c r="J45" t="n">
+      <c r="K45" t="n">
         <v>24.5</v>
       </c>
-      <c r="K45" t="n">
+      <c r="L45" t="n">
         <v>39.8</v>
       </c>
-      <c r="L45" t="n">
+      <c r="M45" t="n">
         <v>31.4</v>
       </c>
-      <c r="M45" t="n">
+      <c r="N45" t="n">
         <v>25.2</v>
       </c>
-      <c r="N45" t="n">
+      <c r="O45" t="n">
         <v>37.2</v>
       </c>
-      <c r="O45" t="n">
+      <c r="P45" t="n">
         <v>18.1</v>
       </c>
-      <c r="P45" t="n">
+      <c r="Q45" t="n">
         <v>10</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>24.9</v>
       </c>
       <c r="R45" t="n">
         <v>24.9</v>
       </c>
       <c r="S45" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="T45" t="n">
         <v>59.3</v>
       </c>
-      <c r="T45" t="n">
+      <c r="U45" t="n">
         <v>44.5</v>
       </c>
-      <c r="U45" t="n">
+      <c r="V45" t="n">
         <v>24.8</v>
       </c>
-      <c r="V45" t="n">
+      <c r="W45" t="n">
         <v>19.2</v>
       </c>
-      <c r="W45" t="n">
+      <c r="X45" t="n">
         <v>12.5</v>
       </c>
-      <c r="X45" t="n">
+      <c r="Y45" t="n">
         <v>25.1</v>
       </c>
-      <c r="Y45" t="n">
+      <c r="Z45" t="n">
         <v>32.9</v>
       </c>
-      <c r="Z45" t="n">
+      <c r="AA45" t="n">
         <v>14.8</v>
       </c>
-      <c r="AA45" t="n">
+      <c r="AB45" t="n">
         <v>26.6</v>
       </c>
-      <c r="AB45" t="n">
+      <c r="AC45" t="n">
         <v>12.7</v>
       </c>
-      <c r="AC45" t="n">
+      <c r="AD45" t="n">
         <v>15.1</v>
       </c>
-      <c r="AD45" t="n">
+      <c r="AE45" t="n">
         <v>11.7</v>
       </c>
-      <c r="AE45" t="n">
+      <c r="AF45" t="n">
         <v>10.7</v>
       </c>
-      <c r="AF45" t="n">
+      <c r="AG45" t="n">
         <v>16.5</v>
       </c>
-      <c r="AG45" t="n">
+      <c r="AH45" t="n">
         <v>13.1</v>
       </c>
-      <c r="AH45" t="n">
+      <c r="AI45" t="n">
         <v>6.7</v>
       </c>
-      <c r="AI45" t="n">
+      <c r="AJ45" t="n">
         <v>7.7</v>
       </c>
-      <c r="AJ45" t="n">
+      <c r="AK45" t="n">
         <v>7.1</v>
       </c>
-      <c r="AK45" t="n">
+      <c r="AL45" t="n">
         <v>11.7</v>
       </c>
-      <c r="AL45" t="n">
+      <c r="AM45" t="n">
         <v>15.5</v>
       </c>
-      <c r="AM45" t="n">
+      <c r="AN45" t="n">
         <v>17.2</v>
       </c>
-      <c r="AN45" t="n">
+      <c r="AO45" t="n">
         <v>17.5</v>
       </c>
-      <c r="AO45" t="n">
+      <c r="AP45" t="n">
         <v>12.4</v>
       </c>
-      <c r="AP45" t="n">
+      <c r="AQ45" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="AQ45" t="n">
+      <c r="AR45" t="n">
         <v>7.1</v>
       </c>
-      <c r="AR45" t="n">
+      <c r="AS45" t="n">
         <v>9.9</v>
       </c>
     </row>
@@ -6671,127 +6818,132 @@
           <t>GN</t>
         </is>
       </c>
-      <c r="D46" t="n">
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
         <v>40</v>
       </c>
-      <c r="E46" t="n">
+      <c r="F46" t="n">
         <v>35</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46" t="n">
         <v>29.9</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46" t="n">
         <v>30.3</v>
       </c>
-      <c r="H46" t="n">
+      <c r="I46" t="n">
         <v>26</v>
       </c>
-      <c r="I46" t="n">
+      <c r="J46" t="n">
         <v>19</v>
       </c>
-      <c r="J46" t="n">
+      <c r="K46" t="n">
         <v>64.7</v>
       </c>
-      <c r="K46" t="n">
+      <c r="L46" t="n">
         <v>36.9</v>
       </c>
-      <c r="L46" t="n">
+      <c r="M46" t="n">
         <v>27.3</v>
       </c>
-      <c r="M46" t="n">
+      <c r="N46" t="n">
         <v>28.3</v>
       </c>
-      <c r="N46" t="n">
+      <c r="O46" t="n">
         <v>25.7</v>
       </c>
-      <c r="O46" t="n">
+      <c r="P46" t="n">
         <v>19.7</v>
       </c>
-      <c r="P46" t="n">
+      <c r="Q46" t="n">
         <v>16.6</v>
       </c>
-      <c r="Q46" t="n">
+      <c r="R46" t="n">
         <v>7.1</v>
       </c>
-      <c r="R46" t="n">
+      <c r="S46" t="n">
         <v>4.2</v>
       </c>
-      <c r="S46" t="n">
+      <c r="T46" t="n">
         <v>5.6</v>
       </c>
-      <c r="T46" t="n">
+      <c r="U46" t="n">
         <v>3</v>
       </c>
-      <c r="U46" t="n">
+      <c r="V46" t="n">
         <v>1.9</v>
       </c>
-      <c r="V46" t="n">
+      <c r="W46" t="n">
         <v>5.1</v>
       </c>
-      <c r="W46" t="n">
+      <c r="X46" t="n">
         <v>4.6</v>
       </c>
-      <c r="X46" t="n">
+      <c r="Y46" t="n">
         <v>6.8</v>
       </c>
-      <c r="Y46" t="n">
+      <c r="Z46" t="n">
         <v>5.4</v>
       </c>
-      <c r="Z46" t="n">
+      <c r="AA46" t="n">
         <v>3</v>
       </c>
-      <c r="AA46" t="n">
+      <c r="AB46" t="n">
         <v>11</v>
       </c>
-      <c r="AB46" t="n">
+      <c r="AC46" t="n">
         <v>17.5</v>
       </c>
-      <c r="AC46" t="n">
+      <c r="AD46" t="n">
         <v>31.4</v>
       </c>
-      <c r="AD46" t="n">
+      <c r="AE46" t="n">
         <v>34.7</v>
       </c>
-      <c r="AE46" t="n">
+      <c r="AF46" t="n">
         <v>22.9</v>
       </c>
-      <c r="AF46" t="n">
+      <c r="AG46" t="n">
         <v>18.4</v>
       </c>
-      <c r="AG46" t="n">
+      <c r="AH46" t="n">
         <v>4.7</v>
       </c>
-      <c r="AH46" t="n">
+      <c r="AI46" t="n">
         <v>15.5</v>
       </c>
-      <c r="AI46" t="n">
+      <c r="AJ46" t="n">
         <v>21.4</v>
       </c>
-      <c r="AJ46" t="n">
+      <c r="AK46" t="n">
         <v>15.2</v>
       </c>
-      <c r="AK46" t="n">
+      <c r="AL46" t="n">
         <v>11.9</v>
       </c>
-      <c r="AL46" t="n">
+      <c r="AM46" t="n">
         <v>9.699999999999999</v>
-      </c>
-      <c r="AM46" t="n">
-        <v>8.199999999999999</v>
       </c>
       <c r="AN46" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AO46" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AP46" t="n">
         <v>8.9</v>
       </c>
-      <c r="AP46" t="n">
+      <c r="AQ46" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="AQ46" t="n">
+      <c r="AR46" t="n">
         <v>9.5</v>
       </c>
-      <c r="AR46" t="n">
+      <c r="AS46" t="n">
         <v>10.6</v>
       </c>
     </row>
@@ -6811,127 +6963,132 @@
           <t>GW</t>
         </is>
       </c>
-      <c r="D47" t="n">
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>GNB</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
         <v>64.8</v>
       </c>
-      <c r="E47" t="n">
+      <c r="F47" t="n">
         <v>41.9</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47" t="n">
         <v>16.5</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47" t="n">
         <v>23.3</v>
       </c>
-      <c r="H47" t="n">
+      <c r="I47" t="n">
         <v>64.90000000000001</v>
       </c>
-      <c r="I47" t="n">
+      <c r="J47" t="n">
         <v>112.7</v>
       </c>
-      <c r="J47" t="n">
+      <c r="K47" t="n">
         <v>26.5</v>
       </c>
-      <c r="K47" t="n">
+      <c r="L47" t="n">
         <v>86.8</v>
       </c>
-      <c r="L47" t="n">
+      <c r="M47" t="n">
         <v>60.3</v>
       </c>
-      <c r="M47" t="n">
+      <c r="N47" t="n">
         <v>80.8</v>
       </c>
-      <c r="N47" t="n">
+      <c r="O47" t="n">
         <v>33</v>
       </c>
-      <c r="O47" t="n">
+      <c r="P47" t="n">
         <v>57.6</v>
       </c>
-      <c r="P47" t="n">
+      <c r="Q47" t="n">
         <v>69.40000000000001</v>
       </c>
-      <c r="Q47" t="n">
+      <c r="R47" t="n">
         <v>48.2</v>
       </c>
-      <c r="R47" t="n">
+      <c r="S47" t="n">
         <v>15.2</v>
       </c>
-      <c r="S47" t="n">
+      <c r="T47" t="n">
         <v>45.1</v>
       </c>
-      <c r="T47" t="n">
+      <c r="U47" t="n">
         <v>50.9</v>
       </c>
-      <c r="U47" t="n">
+      <c r="V47" t="n">
         <v>49.1</v>
       </c>
-      <c r="V47" t="n">
+      <c r="W47" t="n">
         <v>8.1</v>
       </c>
-      <c r="W47" t="n">
+      <c r="X47" t="n">
         <v>-2.1</v>
       </c>
-      <c r="X47" t="n">
+      <c r="Y47" t="n">
         <v>8.6</v>
-      </c>
-      <c r="Y47" t="n">
-        <v>3.3</v>
       </c>
       <c r="Z47" t="n">
         <v>3.3</v>
       </c>
       <c r="AA47" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB47" t="n">
         <v>-3.5</v>
       </c>
-      <c r="AB47" t="n">
+      <c r="AC47" t="n">
         <v>0.8</v>
       </c>
-      <c r="AC47" t="n">
+      <c r="AD47" t="n">
         <v>3.4</v>
       </c>
-      <c r="AD47" t="n">
+      <c r="AE47" t="n">
         <v>2</v>
       </c>
-      <c r="AE47" t="n">
+      <c r="AF47" t="n">
         <v>4.6</v>
       </c>
-      <c r="AF47" t="n">
+      <c r="AG47" t="n">
         <v>10.4</v>
       </c>
-      <c r="AG47" t="n">
+      <c r="AH47" t="n">
         <v>-1.6</v>
       </c>
-      <c r="AH47" t="n">
+      <c r="AI47" t="n">
         <v>1.1</v>
       </c>
-      <c r="AI47" t="n">
+      <c r="AJ47" t="n">
         <v>5.1</v>
       </c>
-      <c r="AJ47" t="n">
+      <c r="AK47" t="n">
         <v>2.1</v>
       </c>
-      <c r="AK47" t="n">
+      <c r="AL47" t="n">
         <v>0.8</v>
       </c>
-      <c r="AL47" t="n">
+      <c r="AM47" t="n">
         <v>-1</v>
       </c>
-      <c r="AM47" t="n">
+      <c r="AN47" t="n">
         <v>1.5</v>
       </c>
-      <c r="AN47" t="n">
+      <c r="AO47" t="n">
         <v>2.7</v>
       </c>
-      <c r="AO47" t="n">
+      <c r="AP47" t="n">
         <v>-0.2</v>
       </c>
-      <c r="AP47" t="n">
+      <c r="AQ47" t="n">
         <v>0.4</v>
       </c>
-      <c r="AQ47" t="n">
+      <c r="AR47" t="n">
         <v>0.3</v>
       </c>
-      <c r="AR47" t="n">
+      <c r="AS47" t="n">
         <v>1.5</v>
       </c>
     </row>
@@ -6951,7 +7108,11 @@
           <t>LR</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>LBR</t>
+        </is>
+      </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
@@ -6970,70 +7131,71 @@
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr"/>
-      <c r="W48" t="n">
+      <c r="W48" t="inlineStr"/>
+      <c r="X48" t="n">
         <v>2</v>
       </c>
-      <c r="X48" t="n">
+      <c r="Y48" t="n">
         <v>5.3</v>
       </c>
-      <c r="Y48" t="n">
+      <c r="Z48" t="n">
         <v>12.1</v>
       </c>
-      <c r="Z48" t="n">
+      <c r="AA48" t="n">
         <v>14.2</v>
       </c>
-      <c r="AA48" t="n">
+      <c r="AB48" t="n">
         <v>10.3</v>
       </c>
-      <c r="AB48" t="n">
+      <c r="AC48" t="n">
         <v>3.6</v>
       </c>
-      <c r="AC48" t="n">
+      <c r="AD48" t="n">
         <v>6.9</v>
       </c>
-      <c r="AD48" t="n">
+      <c r="AE48" t="n">
         <v>9.5</v>
       </c>
-      <c r="AE48" t="n">
+      <c r="AF48" t="n">
         <v>11.4</v>
       </c>
-      <c r="AF48" t="n">
+      <c r="AG48" t="n">
         <v>17.5</v>
       </c>
-      <c r="AG48" t="n">
+      <c r="AH48" t="n">
         <v>7.4</v>
       </c>
-      <c r="AH48" t="n">
+      <c r="AI48" t="n">
         <v>7.3</v>
       </c>
-      <c r="AI48" t="n">
+      <c r="AJ48" t="n">
         <v>8.5</v>
       </c>
-      <c r="AJ48" t="n">
+      <c r="AK48" t="n">
         <v>6.8</v>
       </c>
-      <c r="AK48" t="n">
+      <c r="AL48" t="n">
         <v>7.6</v>
       </c>
-      <c r="AL48" t="n">
+      <c r="AM48" t="n">
         <v>9.9</v>
       </c>
-      <c r="AM48" t="n">
+      <c r="AN48" t="n">
         <v>7.7</v>
       </c>
-      <c r="AN48" t="n">
+      <c r="AO48" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="AO48" t="n">
+      <c r="AP48" t="n">
         <v>12.4</v>
       </c>
-      <c r="AP48" t="n">
+      <c r="AQ48" t="n">
         <v>23.5</v>
       </c>
-      <c r="AQ48" t="n">
+      <c r="AR48" t="n">
         <v>27</v>
       </c>
-      <c r="AR48" t="n">
+      <c r="AS48" t="n">
         <v>17</v>
       </c>
     </row>
@@ -7053,127 +7215,132 @@
           <t>ML</t>
         </is>
       </c>
-      <c r="D49" t="n">
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>MLI</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
         <v>20.3</v>
       </c>
-      <c r="E49" t="n">
+      <c r="F49" t="n">
         <v>12.7</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49" t="n">
         <v>3.9</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49" t="n">
         <v>10.5</v>
       </c>
-      <c r="H49" t="n">
+      <c r="I49" t="n">
         <v>10.7</v>
       </c>
-      <c r="I49" t="n">
+      <c r="J49" t="n">
         <v>9.1</v>
       </c>
-      <c r="J49" t="n">
+      <c r="K49" t="n">
         <v>-1.4</v>
       </c>
-      <c r="K49" t="n">
+      <c r="L49" t="n">
         <v>-14.9</v>
       </c>
-      <c r="L49" t="n">
+      <c r="M49" t="n">
         <v>8.9</v>
       </c>
-      <c r="M49" t="n">
+      <c r="N49" t="n">
         <v>-0.2</v>
       </c>
-      <c r="N49" t="n">
+      <c r="O49" t="n">
         <v>1.6</v>
       </c>
-      <c r="O49" t="n">
+      <c r="P49" t="n">
         <v>1.5</v>
       </c>
-      <c r="P49" t="n">
+      <c r="Q49" t="n">
         <v>-5.9</v>
       </c>
-      <c r="Q49" t="n">
+      <c r="R49" t="n">
         <v>-0.6</v>
       </c>
-      <c r="R49" t="n">
+      <c r="S49" t="n">
         <v>24.3</v>
       </c>
-      <c r="S49" t="n">
+      <c r="T49" t="n">
         <v>11.6</v>
       </c>
-      <c r="T49" t="n">
+      <c r="U49" t="n">
         <v>6.5</v>
       </c>
-      <c r="U49" t="n">
+      <c r="V49" t="n">
         <v>-0.7</v>
       </c>
-      <c r="V49" t="n">
+      <c r="W49" t="n">
         <v>4.1</v>
       </c>
-      <c r="W49" t="n">
+      <c r="X49" t="n">
         <v>-1.2</v>
       </c>
-      <c r="X49" t="n">
+      <c r="Y49" t="n">
         <v>-0.8</v>
       </c>
-      <c r="Y49" t="n">
+      <c r="Z49" t="n">
         <v>5.2</v>
       </c>
-      <c r="Z49" t="n">
+      <c r="AA49" t="n">
         <v>5</v>
       </c>
-      <c r="AA49" t="n">
+      <c r="AB49" t="n">
         <v>-1.3</v>
       </c>
-      <c r="AB49" t="n">
+      <c r="AC49" t="n">
         <v>-3.1</v>
       </c>
-      <c r="AC49" t="n">
+      <c r="AD49" t="n">
         <v>6.4</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>1.5</v>
       </c>
       <c r="AE49" t="n">
         <v>1.5</v>
       </c>
       <c r="AF49" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AG49" t="n">
         <v>9.1</v>
       </c>
-      <c r="AG49" t="n">
+      <c r="AH49" t="n">
         <v>2.2</v>
       </c>
-      <c r="AH49" t="n">
+      <c r="AI49" t="n">
         <v>1.3</v>
       </c>
-      <c r="AI49" t="n">
+      <c r="AJ49" t="n">
         <v>3.1</v>
       </c>
-      <c r="AJ49" t="n">
+      <c r="AK49" t="n">
         <v>5.3</v>
       </c>
-      <c r="AK49" t="n">
+      <c r="AL49" t="n">
         <v>-2.4</v>
       </c>
-      <c r="AL49" t="n">
+      <c r="AM49" t="n">
         <v>2.7</v>
       </c>
-      <c r="AM49" t="n">
+      <c r="AN49" t="n">
         <v>1.4</v>
       </c>
-      <c r="AN49" t="n">
+      <c r="AO49" t="n">
         <v>-1.8</v>
       </c>
-      <c r="AO49" t="n">
+      <c r="AP49" t="n">
         <v>1.8</v>
       </c>
-      <c r="AP49" t="n">
+      <c r="AQ49" t="n">
         <v>1.7</v>
       </c>
-      <c r="AQ49" t="n">
+      <c r="AR49" t="n">
         <v>-2.9</v>
       </c>
-      <c r="AR49" t="n">
+      <c r="AS49" t="n">
         <v>0.6</v>
       </c>
     </row>
@@ -7193,127 +7360,132 @@
           <t>NE</t>
         </is>
       </c>
-      <c r="D50" t="n">
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>NER</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
         <v>7.3</v>
       </c>
-      <c r="E50" t="n">
+      <c r="F50" t="n">
         <v>24.3</v>
       </c>
-      <c r="F50" t="n">
+      <c r="G50" t="n">
         <v>10.4</v>
       </c>
-      <c r="G50" t="n">
+      <c r="H50" t="n">
         <v>1.6</v>
       </c>
-      <c r="H50" t="n">
+      <c r="I50" t="n">
         <v>8.4</v>
       </c>
-      <c r="I50" t="n">
+      <c r="J50" t="n">
         <v>-1.1</v>
       </c>
-      <c r="J50" t="n">
+      <c r="K50" t="n">
         <v>-3.2</v>
       </c>
-      <c r="K50" t="n">
+      <c r="L50" t="n">
         <v>-6.6</v>
       </c>
-      <c r="L50" t="n">
+      <c r="M50" t="n">
         <v>0.6</v>
       </c>
-      <c r="M50" t="n">
+      <c r="N50" t="n">
         <v>-0.8</v>
       </c>
-      <c r="N50" t="n">
+      <c r="O50" t="n">
         <v>-2</v>
       </c>
-      <c r="O50" t="n">
+      <c r="P50" t="n">
         <v>1.5</v>
       </c>
-      <c r="P50" t="n">
+      <c r="Q50" t="n">
         <v>-5.9</v>
       </c>
-      <c r="Q50" t="n">
+      <c r="R50" t="n">
         <v>-0.3</v>
       </c>
-      <c r="R50" t="n">
+      <c r="S50" t="n">
         <v>35.5</v>
       </c>
-      <c r="S50" t="n">
+      <c r="T50" t="n">
         <v>10.9</v>
       </c>
-      <c r="T50" t="n">
+      <c r="U50" t="n">
         <v>5.3</v>
       </c>
-      <c r="U50" t="n">
+      <c r="V50" t="n">
         <v>2.9</v>
       </c>
-      <c r="V50" t="n">
+      <c r="W50" t="n">
         <v>4.6</v>
       </c>
-      <c r="W50" t="n">
+      <c r="X50" t="n">
         <v>-2.1</v>
       </c>
-      <c r="X50" t="n">
+      <c r="Y50" t="n">
         <v>2.7</v>
       </c>
-      <c r="Y50" t="n">
+      <c r="Z50" t="n">
         <v>3.9</v>
       </c>
-      <c r="Z50" t="n">
+      <c r="AA50" t="n">
         <v>2.5</v>
       </c>
-      <c r="AA50" t="n">
+      <c r="AB50" t="n">
         <v>-1.5</v>
       </c>
-      <c r="AB50" t="n">
+      <c r="AC50" t="n">
         <v>0.2</v>
       </c>
-      <c r="AC50" t="n">
+      <c r="AD50" t="n">
         <v>7.8</v>
       </c>
-      <c r="AD50" t="n">
+      <c r="AE50" t="n">
         <v>0</v>
       </c>
-      <c r="AE50" t="n">
+      <c r="AF50" t="n">
         <v>0.1</v>
       </c>
-      <c r="AF50" t="n">
+      <c r="AG50" t="n">
         <v>11.3</v>
       </c>
-      <c r="AG50" t="n">
+      <c r="AH50" t="n">
         <v>0.5</v>
       </c>
-      <c r="AH50" t="n">
+      <c r="AI50" t="n">
         <v>0.9</v>
       </c>
-      <c r="AI50" t="n">
+      <c r="AJ50" t="n">
         <v>2.9</v>
       </c>
-      <c r="AJ50" t="n">
+      <c r="AK50" t="n">
         <v>0.5</v>
       </c>
-      <c r="AK50" t="n">
+      <c r="AL50" t="n">
         <v>2.3</v>
       </c>
-      <c r="AL50" t="n">
+      <c r="AM50" t="n">
         <v>-0.9</v>
       </c>
-      <c r="AM50" t="n">
+      <c r="AN50" t="n">
         <v>1</v>
-      </c>
-      <c r="AN50" t="n">
-        <v>0.2</v>
       </c>
       <c r="AO50" t="n">
         <v>0.2</v>
       </c>
       <c r="AP50" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AQ50" t="n">
         <v>2.8</v>
       </c>
-      <c r="AQ50" t="n">
+      <c r="AR50" t="n">
         <v>-2.5</v>
       </c>
-      <c r="AR50" t="n">
+      <c r="AS50" t="n">
         <v>2.8</v>
       </c>
     </row>
@@ -7333,7 +7505,11 @@
           <t>NG</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>NGA</t>
+        </is>
+      </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
@@ -7349,79 +7525,80 @@
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr"/>
       <c r="S51" t="inlineStr"/>
-      <c r="T51" t="n">
+      <c r="T51" t="inlineStr"/>
+      <c r="U51" t="n">
         <v>29.3</v>
       </c>
-      <c r="U51" t="n">
+      <c r="V51" t="n">
         <v>10.7</v>
       </c>
-      <c r="V51" t="n">
+      <c r="W51" t="n">
         <v>7.9</v>
       </c>
-      <c r="W51" t="n">
+      <c r="X51" t="n">
         <v>6.6</v>
       </c>
-      <c r="X51" t="n">
+      <c r="Y51" t="n">
         <v>6.9</v>
       </c>
-      <c r="Y51" t="n">
+      <c r="Z51" t="n">
         <v>18.9</v>
       </c>
-      <c r="Z51" t="n">
+      <c r="AA51" t="n">
         <v>12.9</v>
       </c>
-      <c r="AA51" t="n">
+      <c r="AB51" t="n">
         <v>14</v>
       </c>
-      <c r="AB51" t="n">
+      <c r="AC51" t="n">
         <v>15</v>
       </c>
-      <c r="AC51" t="n">
+      <c r="AD51" t="n">
         <v>17.9</v>
       </c>
-      <c r="AD51" t="n">
+      <c r="AE51" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="AE51" t="n">
+      <c r="AF51" t="n">
         <v>5.4</v>
       </c>
-      <c r="AF51" t="n">
+      <c r="AG51" t="n">
         <v>11.6</v>
       </c>
-      <c r="AG51" t="n">
+      <c r="AH51" t="n">
         <v>12.5</v>
       </c>
-      <c r="AH51" t="n">
+      <c r="AI51" t="n">
         <v>13.7</v>
       </c>
-      <c r="AI51" t="n">
+      <c r="AJ51" t="n">
         <v>10.8</v>
       </c>
-      <c r="AJ51" t="n">
+      <c r="AK51" t="n">
         <v>12.2</v>
       </c>
-      <c r="AK51" t="n">
+      <c r="AL51" t="n">
         <v>8.5</v>
       </c>
-      <c r="AL51" t="n">
+      <c r="AM51" t="n">
         <v>8</v>
       </c>
-      <c r="AM51" t="n">
+      <c r="AN51" t="n">
         <v>9</v>
       </c>
-      <c r="AN51" t="n">
+      <c r="AO51" t="n">
         <v>15.7</v>
       </c>
-      <c r="AO51" t="n">
+      <c r="AP51" t="n">
         <v>16.5</v>
       </c>
-      <c r="AP51" t="n">
+      <c r="AQ51" t="n">
         <v>12.1</v>
       </c>
-      <c r="AQ51" t="n">
+      <c r="AR51" t="n">
         <v>11.4</v>
       </c>
-      <c r="AR51" t="n">
+      <c r="AS51" t="n">
         <v>13.2</v>
       </c>
     </row>
@@ -7441,127 +7618,132 @@
           <t>SN</t>
         </is>
       </c>
-      <c r="D52" t="n">
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>SEN</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="E52" t="n">
+      <c r="F52" t="n">
         <v>5.8</v>
       </c>
-      <c r="F52" t="n">
+      <c r="G52" t="n">
         <v>17.4</v>
-      </c>
-      <c r="G52" t="n">
-        <v>11.7</v>
       </c>
       <c r="H52" t="n">
         <v>11.7</v>
       </c>
       <c r="I52" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J52" t="n">
         <v>13</v>
       </c>
-      <c r="J52" t="n">
+      <c r="K52" t="n">
         <v>6.1</v>
       </c>
-      <c r="K52" t="n">
+      <c r="L52" t="n">
         <v>-4.1</v>
       </c>
-      <c r="L52" t="n">
+      <c r="M52" t="n">
         <v>-1.8</v>
       </c>
-      <c r="M52" t="n">
+      <c r="N52" t="n">
         <v>0.4</v>
       </c>
-      <c r="N52" t="n">
+      <c r="O52" t="n">
         <v>0.3</v>
       </c>
-      <c r="O52" t="n">
+      <c r="P52" t="n">
         <v>-1.8</v>
       </c>
-      <c r="P52" t="n">
+      <c r="Q52" t="n">
         <v>0</v>
       </c>
-      <c r="Q52" t="n">
+      <c r="R52" t="n">
         <v>-0.7</v>
       </c>
-      <c r="R52" t="n">
+      <c r="S52" t="n">
         <v>32.1</v>
       </c>
-      <c r="S52" t="n">
+      <c r="T52" t="n">
         <v>8.1</v>
       </c>
-      <c r="T52" t="n">
+      <c r="U52" t="n">
         <v>2.8</v>
       </c>
-      <c r="U52" t="n">
+      <c r="V52" t="n">
         <v>1.8</v>
       </c>
-      <c r="V52" t="n">
+      <c r="W52" t="n">
         <v>1</v>
-      </c>
-      <c r="W52" t="n">
-        <v>0.8</v>
       </c>
       <c r="X52" t="n">
         <v>0.8</v>
       </c>
       <c r="Y52" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Z52" t="n">
         <v>3.1</v>
       </c>
-      <c r="Z52" t="n">
+      <c r="AA52" t="n">
         <v>2.4</v>
       </c>
-      <c r="AA52" t="n">
+      <c r="AB52" t="n">
         <v>0</v>
       </c>
-      <c r="AB52" t="n">
+      <c r="AC52" t="n">
         <v>0.5</v>
       </c>
-      <c r="AC52" t="n">
+      <c r="AD52" t="n">
         <v>1.7</v>
       </c>
-      <c r="AD52" t="n">
+      <c r="AE52" t="n">
         <v>2.1</v>
       </c>
-      <c r="AE52" t="n">
+      <c r="AF52" t="n">
         <v>5.9</v>
       </c>
-      <c r="AF52" t="n">
+      <c r="AG52" t="n">
         <v>6.3</v>
       </c>
-      <c r="AG52" t="n">
+      <c r="AH52" t="n">
         <v>-2.2</v>
       </c>
-      <c r="AH52" t="n">
+      <c r="AI52" t="n">
         <v>1.2</v>
       </c>
-      <c r="AI52" t="n">
+      <c r="AJ52" t="n">
         <v>3.4</v>
       </c>
-      <c r="AJ52" t="n">
+      <c r="AK52" t="n">
         <v>1.4</v>
       </c>
-      <c r="AK52" t="n">
+      <c r="AL52" t="n">
         <v>0.7</v>
       </c>
-      <c r="AL52" t="n">
+      <c r="AM52" t="n">
         <v>-1.1</v>
       </c>
-      <c r="AM52" t="n">
+      <c r="AN52" t="n">
         <v>0.9</v>
       </c>
-      <c r="AN52" t="n">
+      <c r="AO52" t="n">
         <v>1.2</v>
       </c>
-      <c r="AO52" t="n">
+      <c r="AP52" t="n">
         <v>1.1</v>
       </c>
-      <c r="AP52" t="n">
+      <c r="AQ52" t="n">
         <v>0.5</v>
       </c>
-      <c r="AQ52" t="n">
+      <c r="AR52" t="n">
         <v>1</v>
       </c>
-      <c r="AR52" t="n">
+      <c r="AS52" t="n">
         <v>2.5</v>
       </c>
     </row>
@@ -7581,127 +7763,132 @@
           <t>SL</t>
         </is>
       </c>
-      <c r="D53" t="n">
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>SLE</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
         <v>12.9</v>
       </c>
-      <c r="E53" t="n">
+      <c r="F53" t="n">
         <v>23.4</v>
       </c>
-      <c r="F53" t="n">
+      <c r="G53" t="n">
         <v>26.9</v>
       </c>
-      <c r="G53" t="n">
+      <c r="H53" t="n">
         <v>68.5</v>
       </c>
-      <c r="H53" t="n">
+      <c r="I53" t="n">
         <v>66.59999999999999</v>
       </c>
-      <c r="I53" t="n">
+      <c r="J53" t="n">
         <v>76.59999999999999</v>
       </c>
-      <c r="J53" t="n">
+      <c r="K53" t="n">
         <v>80.90000000000001</v>
       </c>
-      <c r="K53" t="n">
+      <c r="L53" t="n">
         <v>178.7</v>
       </c>
-      <c r="L53" t="n">
+      <c r="M53" t="n">
         <v>34.3</v>
       </c>
-      <c r="M53" t="n">
+      <c r="N53" t="n">
         <v>60.8</v>
       </c>
-      <c r="N53" t="n">
+      <c r="O53" t="n">
         <v>110.9</v>
       </c>
-      <c r="O53" t="n">
+      <c r="P53" t="n">
         <v>102.7</v>
       </c>
-      <c r="P53" t="n">
+      <c r="Q53" t="n">
         <v>65.5</v>
       </c>
-      <c r="Q53" t="n">
+      <c r="R53" t="n">
         <v>22.2</v>
       </c>
-      <c r="R53" t="n">
+      <c r="S53" t="n">
         <v>24.2</v>
       </c>
-      <c r="S53" t="n">
+      <c r="T53" t="n">
         <v>26</v>
       </c>
-      <c r="T53" t="n">
+      <c r="U53" t="n">
         <v>23.1</v>
       </c>
-      <c r="U53" t="n">
+      <c r="V53" t="n">
         <v>14.6</v>
       </c>
-      <c r="V53" t="n">
+      <c r="W53" t="n">
         <v>36</v>
       </c>
-      <c r="W53" t="n">
+      <c r="X53" t="n">
         <v>34.1</v>
       </c>
-      <c r="X53" t="n">
+      <c r="Y53" t="n">
         <v>-0.9</v>
       </c>
-      <c r="Y53" t="n">
+      <c r="Z53" t="n">
         <v>2.6</v>
       </c>
-      <c r="Z53" t="n">
+      <c r="AA53" t="n">
         <v>0.1</v>
       </c>
-      <c r="AA53" t="n">
+      <c r="AB53" t="n">
         <v>4</v>
       </c>
-      <c r="AB53" t="n">
+      <c r="AC53" t="n">
         <v>12.9</v>
       </c>
-      <c r="AC53" t="n">
+      <c r="AD53" t="n">
         <v>13.7</v>
       </c>
-      <c r="AD53" t="n">
+      <c r="AE53" t="n">
         <v>10.5</v>
       </c>
-      <c r="AE53" t="n">
+      <c r="AF53" t="n">
         <v>17</v>
       </c>
-      <c r="AF53" t="n">
+      <c r="AG53" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="AG53" t="n">
+      <c r="AH53" t="n">
         <v>7.5</v>
       </c>
-      <c r="AH53" t="n">
+      <c r="AI53" t="n">
         <v>7.2</v>
       </c>
-      <c r="AI53" t="n">
+      <c r="AJ53" t="n">
         <v>6.8</v>
       </c>
-      <c r="AJ53" t="n">
+      <c r="AK53" t="n">
         <v>6.6</v>
       </c>
-      <c r="AK53" t="n">
+      <c r="AL53" t="n">
         <v>5.5</v>
       </c>
-      <c r="AL53" t="n">
+      <c r="AM53" t="n">
         <v>4.6</v>
       </c>
-      <c r="AM53" t="n">
+      <c r="AN53" t="n">
         <v>6.7</v>
       </c>
-      <c r="AN53" t="n">
+      <c r="AO53" t="n">
         <v>10.9</v>
       </c>
-      <c r="AO53" t="n">
+      <c r="AP53" t="n">
         <v>18.2</v>
       </c>
-      <c r="AP53" t="n">
+      <c r="AQ53" t="n">
         <v>16</v>
       </c>
-      <c r="AQ53" t="n">
+      <c r="AR53" t="n">
         <v>14.8</v>
       </c>
-      <c r="AR53" t="n">
+      <c r="AS53" t="n">
         <v>15.7</v>
       </c>
     </row>
@@ -7721,127 +7908,132 @@
           <t>TG</t>
         </is>
       </c>
-      <c r="D54" t="n">
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>TGO</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
         <v>12.3</v>
       </c>
-      <c r="E54" t="n">
+      <c r="F54" t="n">
         <v>19.7</v>
       </c>
-      <c r="F54" t="n">
+      <c r="G54" t="n">
         <v>11.1</v>
       </c>
-      <c r="G54" t="n">
+      <c r="H54" t="n">
         <v>9.4</v>
       </c>
-      <c r="H54" t="n">
+      <c r="I54" t="n">
         <v>-3.5</v>
       </c>
-      <c r="I54" t="n">
+      <c r="J54" t="n">
         <v>-1.8</v>
       </c>
-      <c r="J54" t="n">
+      <c r="K54" t="n">
         <v>4.1</v>
       </c>
-      <c r="K54" t="n">
+      <c r="L54" t="n">
         <v>0.1</v>
       </c>
-      <c r="L54" t="n">
+      <c r="M54" t="n">
         <v>-0.2</v>
       </c>
-      <c r="M54" t="n">
+      <c r="N54" t="n">
         <v>-1</v>
       </c>
-      <c r="N54" t="n">
+      <c r="O54" t="n">
         <v>1.1</v>
       </c>
-      <c r="O54" t="n">
+      <c r="P54" t="n">
         <v>0.2</v>
       </c>
-      <c r="P54" t="n">
+      <c r="Q54" t="n">
         <v>1.6</v>
       </c>
-      <c r="Q54" t="n">
+      <c r="R54" t="n">
         <v>-0.1</v>
       </c>
-      <c r="R54" t="n">
+      <c r="S54" t="n">
         <v>35.3</v>
       </c>
-      <c r="S54" t="n">
+      <c r="T54" t="n">
         <v>15.8</v>
       </c>
-      <c r="T54" t="n">
+      <c r="U54" t="n">
         <v>4.6</v>
       </c>
-      <c r="U54" t="n">
+      <c r="V54" t="n">
         <v>5.3</v>
       </c>
-      <c r="V54" t="n">
+      <c r="W54" t="n">
         <v>1</v>
       </c>
-      <c r="W54" t="n">
+      <c r="X54" t="n">
         <v>-0.1</v>
       </c>
-      <c r="X54" t="n">
+      <c r="Y54" t="n">
         <v>1.6</v>
       </c>
-      <c r="Y54" t="n">
+      <c r="Z54" t="n">
         <v>5.1</v>
       </c>
-      <c r="Z54" t="n">
+      <c r="AA54" t="n">
         <v>2.7</v>
       </c>
-      <c r="AA54" t="n">
+      <c r="AB54" t="n">
         <v>-0.9</v>
       </c>
-      <c r="AB54" t="n">
+      <c r="AC54" t="n">
         <v>0.7</v>
       </c>
-      <c r="AC54" t="n">
+      <c r="AD54" t="n">
         <v>5.3</v>
       </c>
-      <c r="AD54" t="n">
+      <c r="AE54" t="n">
         <v>1.1</v>
       </c>
-      <c r="AE54" t="n">
+      <c r="AF54" t="n">
         <v>0.4</v>
       </c>
-      <c r="AF54" t="n">
+      <c r="AG54" t="n">
         <v>7.7</v>
       </c>
-      <c r="AG54" t="n">
+      <c r="AH54" t="n">
         <v>4.1</v>
       </c>
-      <c r="AH54" t="n">
+      <c r="AI54" t="n">
         <v>0.2</v>
       </c>
-      <c r="AI54" t="n">
+      <c r="AJ54" t="n">
         <v>3.6</v>
       </c>
-      <c r="AJ54" t="n">
+      <c r="AK54" t="n">
         <v>2.6</v>
       </c>
-      <c r="AK54" t="n">
+      <c r="AL54" t="n">
         <v>1.8</v>
       </c>
-      <c r="AL54" t="n">
+      <c r="AM54" t="n">
         <v>0.2</v>
       </c>
-      <c r="AM54" t="n">
+      <c r="AN54" t="n">
         <v>1.8</v>
       </c>
-      <c r="AN54" t="n">
+      <c r="AO54" t="n">
         <v>0.9</v>
       </c>
-      <c r="AO54" t="n">
+      <c r="AP54" t="n">
         <v>-0.2</v>
       </c>
-      <c r="AP54" t="n">
+      <c r="AQ54" t="n">
         <v>0.9</v>
       </c>
-      <c r="AQ54" t="n">
+      <c r="AR54" t="n">
         <v>0.7</v>
       </c>
-      <c r="AR54" t="n">
+      <c r="AS54" t="n">
         <v>1.8</v>
       </c>
     </row>
